--- a/data/Class LKG - Examination Results.xlsx
+++ b/data/Class LKG - Examination Results.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Report-Card\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Arcadia school\final examinantion 2023 excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0C5879-0015-4305-BBA9-B3ACB66375C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1579F48-CD6B-4A34-B577-372D54322CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Class" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Class!$D$1:$D$63</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -24,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -410,9 +411,6 @@
     <t>Rohit Kumar</t>
   </si>
   <si>
-    <t>Vandna</t>
-  </si>
-  <si>
     <t>01-03-2018</t>
   </si>
   <si>
@@ -630,6 +628,9 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>Vandana</t>
   </si>
 </sst>
 </file>
@@ -639,7 +640,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -966,7 +967,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1014,10 +1015,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1025,36 +1023,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1092,16 +1060,16 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1155,6 +1123,36 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1373,294 +1371,294 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BF4" sqref="BF4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="12.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="5.69140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.15234375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.69140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.69140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.69140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.69140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.07421875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.23046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.84375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="4.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.23046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.84375" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="4.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.23046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.84375" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="4.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.23046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.84375" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="33" width="4.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.84375" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="39" width="4.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="6.84375" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="45" width="4.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="6.84375" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="50" width="4.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="4.07421875" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="6.84375" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="5.69140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="11.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="7.3828125" style="2" customWidth="1"/>
-    <col min="56" max="56" width="9.84375" style="2" customWidth="1"/>
-    <col min="57" max="16384" width="14.4609375" style="2"/>
+    <col min="1" max="1" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="4.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="4.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="33" width="4.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="39" width="4.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="6.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="45" width="4.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="6.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="50" width="4.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="4.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="6.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="7.33203125" style="2" customWidth="1"/>
+    <col min="56" max="56" width="9.88671875" style="2" customWidth="1"/>
+    <col min="57" max="16384" width="14.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:56">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="25" t="s">
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="24" t="s">
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="25" t="s">
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="26" t="s">
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="56"/>
+      <c r="AG1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="23"/>
-      <c r="AM1" s="27" t="s">
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="22"/>
-      <c r="AP1" s="22"/>
-      <c r="AQ1" s="22"/>
-      <c r="AR1" s="23"/>
-      <c r="AS1" s="28" t="s">
+      <c r="AN1" s="55"/>
+      <c r="AO1" s="55"/>
+      <c r="AP1" s="55"/>
+      <c r="AQ1" s="55"/>
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="AT1" s="22"/>
-      <c r="AU1" s="22"/>
-      <c r="AV1" s="22"/>
-      <c r="AW1" s="22"/>
-      <c r="AX1" s="23"/>
-      <c r="AY1" s="29" t="s">
+      <c r="AT1" s="55"/>
+      <c r="AU1" s="55"/>
+      <c r="AV1" s="55"/>
+      <c r="AW1" s="55"/>
+      <c r="AX1" s="56"/>
+      <c r="AY1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="AZ1" s="30"/>
-      <c r="BA1" s="30"/>
-      <c r="BB1" s="30"/>
-      <c r="BC1" s="30"/>
+      <c r="AZ1" s="59"/>
+      <c r="BA1" s="59"/>
+      <c r="BB1" s="59"/>
+      <c r="BC1" s="59"/>
     </row>
-    <row r="2" spans="1:56" ht="51.45" x14ac:dyDescent="0.4">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:56" ht="26.4">
+      <c r="A2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="K2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="L2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="O2" s="35" t="s">
+      <c r="N2" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="O2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="35" t="s">
+      <c r="P2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="35" t="s">
+      <c r="Q2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="35" t="s">
+      <c r="R2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="35" t="s">
+      <c r="S2" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="U2" s="34" t="s">
+      <c r="T2" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="U2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="34" t="s">
+      <c r="V2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="W2" s="34" t="s">
+      <c r="W2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="X2" s="34" t="s">
+      <c r="X2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="Y2" s="34" t="s">
+      <c r="Y2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="Z2" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA2" s="35" t="s">
+      <c r="Z2" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="35" t="s">
+      <c r="AB2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="AC2" s="35" t="s">
+      <c r="AC2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="AD2" s="35" t="s">
+      <c r="AD2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="AE2" s="35" t="s">
+      <c r="AE2" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="AF2" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="AG2" s="36" t="s">
+      <c r="AF2" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG2" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AH2" s="36" t="s">
+      <c r="AH2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="AI2" s="36" t="s">
+      <c r="AI2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="AJ2" s="36" t="s">
+      <c r="AJ2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="AK2" s="36" t="s">
+      <c r="AK2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="AL2" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="AM2" s="37" t="s">
+      <c r="AL2" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="AM2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="AN2" s="37" t="s">
+      <c r="AN2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="AO2" s="37" t="s">
+      <c r="AO2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AP2" s="37" t="s">
+      <c r="AP2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="AQ2" s="37" t="s">
+      <c r="AQ2" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="AR2" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS2" s="38" t="s">
+      <c r="AR2" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="AS2" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="AT2" s="38" t="s">
+      <c r="AT2" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="AU2" s="38" t="s">
+      <c r="AU2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="AV2" s="38" t="s">
+      <c r="AV2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="AW2" s="38" t="s">
+      <c r="AW2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="AX2" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="AY2" s="39" t="s">
+      <c r="AX2" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="AY2" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="AZ2" s="39" t="s">
+      <c r="AZ2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="BA2" s="39" t="s">
+      <c r="BA2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="BB2" s="39" t="s">
+      <c r="BB2" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="BC2" s="40" t="s">
+      <c r="BC2" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="BD2" s="41" t="s">
+      <c r="BD2" s="30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A3" s="42">
+    <row r="3" spans="1:56">
+      <c r="A3" s="31">
         <v>1</v>
       </c>
       <c r="B3" s="3">
@@ -1700,7 +1698,7 @@
         <v>15</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O3" s="6">
         <v>23</v>
@@ -1718,7 +1716,7 @@
         <v>19</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U3" s="4">
         <v>12</v>
@@ -1736,7 +1734,7 @@
         <v>15</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA3" s="4">
         <v>21</v>
@@ -1754,94 +1752,94 @@
         <v>24</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG3" s="43">
-        <f t="shared" ref="AG3:AL3" si="0">(IF(I3="Ab",0,IF(I3="NA",0,I3))+IF(O3="Ab",0,IF(O3="NA",0,O3))+IF(U3="Ab",0,IF(U3="NA",0,U3))+IF(AA3="Ab",0,IF(AA3="NA",0,AA3)))</f>
+        <v>195</v>
+      </c>
+      <c r="AG3" s="32">
+        <f t="shared" ref="AG3:AK3" si="0">(IF(I3="Ab",0,IF(I3="NA",0,I3))+IF(O3="Ab",0,IF(O3="NA",0,O3))+IF(U3="Ab",0,IF(U3="NA",0,U3))+IF(AA3="Ab",0,IF(AA3="NA",0,AA3)))</f>
         <v>67</v>
       </c>
-      <c r="AH3" s="43">
+      <c r="AH3" s="32">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="AI3" s="43">
+      <c r="AI3" s="32">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="AJ3" s="43">
+      <c r="AJ3" s="32">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="AK3" s="43">
+      <c r="AK3" s="32">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="44">
-        <f t="shared" ref="AM3:AR3" si="1">ROUND(AG3/80*100,0)</f>
-        <v>84</v>
-      </c>
-      <c r="AN3" s="44">
+      <c r="AL3" s="32"/>
+      <c r="AM3" s="33">
+        <f t="shared" ref="AM3:AQ4" si="1">ROUND(AG3/100*100,0)</f>
+        <v>67</v>
+      </c>
+      <c r="AN3" s="33">
         <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="AO3" s="44">
-        <f t="shared" si="1"/>
-        <v>104</v>
-      </c>
-      <c r="AP3" s="44">
+        <v>73</v>
+      </c>
+      <c r="AO3" s="33">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="AQ3" s="44">
+      <c r="AP3" s="33">
         <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="AR3" s="44"/>
-      <c r="AS3" s="44" t="str">
-        <f t="shared" ref="AS3:AX3" si="2">IF(AM3&gt;90,"A1",IF(AM3&gt;80,"A2",IF(AM3&gt;70,"B1",IF(AM3&gt;60,"B2",IF(AM3&gt;50,"C1",IF(AM3&gt;40,"C2",IF(AM3&gt;32,"D","E")))))))</f>
-        <v>A2</v>
-      </c>
-      <c r="AT3" s="44" t="str">
+        <v>66</v>
+      </c>
+      <c r="AQ3" s="33">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="AR3" s="33"/>
+      <c r="AS3" s="33" t="str">
+        <f t="shared" ref="AS3:AW3" si="2">IF(AM3&gt;90,"A1",IF(AM3&gt;80,"A2",IF(AM3&gt;70,"B1",IF(AM3&gt;60,"B2",IF(AM3&gt;50,"C1",IF(AM3&gt;40,"C2",IF(AM3&gt;32,"D","E")))))))</f>
+        <v>B2</v>
+      </c>
+      <c r="AT3" s="33" t="str">
         <f t="shared" si="2"/>
-        <v>A1</v>
-      </c>
-      <c r="AU3" s="44" t="str">
-        <f t="shared" si="2"/>
-        <v>A1</v>
-      </c>
-      <c r="AV3" s="44" t="str">
+        <v>B1</v>
+      </c>
+      <c r="AU3" s="33" t="str">
         <f t="shared" si="2"/>
         <v>A2</v>
       </c>
-      <c r="AW3" s="44" t="str">
+      <c r="AV3" s="33" t="str">
         <f t="shared" si="2"/>
-        <v>A1</v>
-      </c>
-      <c r="AX3" s="44"/>
-      <c r="AY3" s="17">
+        <v>B2</v>
+      </c>
+      <c r="AW3" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v>B1</v>
+      </c>
+      <c r="AX3" s="33"/>
+      <c r="AY3" s="4">
         <v>500</v>
       </c>
-      <c r="AZ3" s="45">
+      <c r="AZ3" s="34">
         <f t="shared" ref="AZ3:AZ43" si="3">SUM(AG3:AL3)</f>
         <v>362</v>
       </c>
-      <c r="BA3" s="18">
+      <c r="BA3" s="17">
         <f t="shared" ref="BA3:BA43" si="4">ROUND(AZ3/AY3*100,0)</f>
         <v>72</v>
       </c>
-      <c r="BB3" s="17">
+      <c r="BB3" s="4">
         <v>103</v>
       </c>
-      <c r="BC3" s="17">
+      <c r="BC3" s="4">
         <v>170</v>
       </c>
-      <c r="BD3" s="46">
+      <c r="BD3" s="35">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A4" s="42">
+    <row r="4" spans="1:56">
+      <c r="A4" s="31">
         <v>2</v>
       </c>
       <c r="B4" s="3">
@@ -1881,7 +1879,7 @@
         <v>15</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O4" s="6">
         <v>26</v>
@@ -1899,7 +1897,7 @@
         <v>26</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U4" s="4">
         <v>15</v>
@@ -1917,7 +1915,7 @@
         <v>18</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA4" s="4">
         <v>26</v>
@@ -1935,94 +1933,94 @@
         <v>24</v>
       </c>
       <c r="AF4" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG4" s="43">
+        <v>195</v>
+      </c>
+      <c r="AG4" s="32">
         <f t="shared" ref="AG4:AG43" si="5">(IF(I4="Ab",0,IF(I4="NA",0,I4))+IF(O4="Ab",0,IF(O4="NA",0,O4))+IF(U4="Ab",0,IF(U4="NA",0,U4))+IF(AA4="Ab",0,IF(AA4="NA",0,AA4)))</f>
         <v>83</v>
       </c>
-      <c r="AH4" s="43">
+      <c r="AH4" s="32">
         <f t="shared" ref="AH4:AH43" si="6">(IF(J4="Ab",0,IF(J4="NA",0,J4))+IF(P4="Ab",0,IF(P4="NA",0,P4))+IF(V4="Ab",0,IF(V4="NA",0,V4))+IF(AB4="Ab",0,IF(AB4="NA",0,AB4)))</f>
         <v>87</v>
       </c>
-      <c r="AI4" s="43">
+      <c r="AI4" s="32">
         <f t="shared" ref="AI4:AI43" si="7">(IF(K4="Ab",0,IF(K4="NA",0,K4))+IF(Q4="Ab",0,IF(Q4="NA",0,Q4))+IF(W4="Ab",0,IF(W4="NA",0,W4))+IF(AC4="Ab",0,IF(AC4="NA",0,AC4)))</f>
         <v>94</v>
       </c>
-      <c r="AJ4" s="43">
+      <c r="AJ4" s="32">
         <f t="shared" ref="AJ4:AJ43" si="8">(IF(L4="Ab",0,IF(L4="NA",0,L4))+IF(R4="Ab",0,IF(R4="NA",0,R4))+IF(X4="Ab",0,IF(X4="NA",0,X4))+IF(AD4="Ab",0,IF(AD4="NA",0,AD4)))</f>
         <v>84</v>
       </c>
-      <c r="AK4" s="43">
+      <c r="AK4" s="32">
         <f t="shared" ref="AK4:AK43" si="9">(IF(M4="Ab",0,IF(M4="NA",0,M4))+IF(S4="Ab",0,IF(S4="NA",0,S4))+IF(Y4="Ab",0,IF(Y4="NA",0,Y4))+IF(AE4="Ab",0,IF(AE4="NA",0,AE4)))</f>
         <v>83</v>
       </c>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="44">
-        <f t="shared" ref="AM4:AM43" si="10">ROUND(AG4/80*100,0)</f>
-        <v>104</v>
-      </c>
-      <c r="AN4" s="44">
-        <f t="shared" ref="AN4:AN43" si="11">ROUND(AH4/80*100,0)</f>
-        <v>109</v>
-      </c>
-      <c r="AO4" s="44">
-        <f t="shared" ref="AO4:AO43" si="12">ROUND(AI4/80*100,0)</f>
-        <v>118</v>
-      </c>
-      <c r="AP4" s="44">
-        <f t="shared" ref="AP4:AP43" si="13">ROUND(AJ4/80*100,0)</f>
-        <v>105</v>
-      </c>
-      <c r="AQ4" s="44">
-        <f t="shared" ref="AQ4:AQ43" si="14">ROUND(AK4/80*100,0)</f>
-        <v>104</v>
-      </c>
-      <c r="AR4" s="44"/>
-      <c r="AS4" s="44" t="str">
-        <f t="shared" ref="AS4:AS43" si="15">IF(AM4&gt;90,"A1",IF(AM4&gt;80,"A2",IF(AM4&gt;70,"B1",IF(AM4&gt;60,"B2",IF(AM4&gt;50,"C1",IF(AM4&gt;40,"C2",IF(AM4&gt;32,"D","E")))))))</f>
+      <c r="AL4" s="32"/>
+      <c r="AM4" s="33">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="AN4" s="33">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="AO4" s="33">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="AP4" s="33">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="AQ4" s="33">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="AR4" s="33"/>
+      <c r="AS4" s="33" t="str">
+        <f t="shared" ref="AS4:AS43" si="10">IF(AM4&gt;90,"A1",IF(AM4&gt;80,"A2",IF(AM4&gt;70,"B1",IF(AM4&gt;60,"B2",IF(AM4&gt;50,"C1",IF(AM4&gt;40,"C2",IF(AM4&gt;32,"D","E")))))))</f>
+        <v>A2</v>
+      </c>
+      <c r="AT4" s="33" t="str">
+        <f t="shared" ref="AT4:AT43" si="11">IF(AN4&gt;90,"A1",IF(AN4&gt;80,"A2",IF(AN4&gt;70,"B1",IF(AN4&gt;60,"B2",IF(AN4&gt;50,"C1",IF(AN4&gt;40,"C2",IF(AN4&gt;32,"D","E")))))))</f>
+        <v>A2</v>
+      </c>
+      <c r="AU4" s="33" t="str">
+        <f t="shared" ref="AU4:AU43" si="12">IF(AO4&gt;90,"A1",IF(AO4&gt;80,"A2",IF(AO4&gt;70,"B1",IF(AO4&gt;60,"B2",IF(AO4&gt;50,"C1",IF(AO4&gt;40,"C2",IF(AO4&gt;32,"D","E")))))))</f>
         <v>A1</v>
       </c>
-      <c r="AT4" s="44" t="str">
-        <f t="shared" ref="AT4:AT43" si="16">IF(AN4&gt;90,"A1",IF(AN4&gt;80,"A2",IF(AN4&gt;70,"B1",IF(AN4&gt;60,"B2",IF(AN4&gt;50,"C1",IF(AN4&gt;40,"C2",IF(AN4&gt;32,"D","E")))))))</f>
-        <v>A1</v>
-      </c>
-      <c r="AU4" s="44" t="str">
-        <f t="shared" ref="AU4:AU43" si="17">IF(AO4&gt;90,"A1",IF(AO4&gt;80,"A2",IF(AO4&gt;70,"B1",IF(AO4&gt;60,"B2",IF(AO4&gt;50,"C1",IF(AO4&gt;40,"C2",IF(AO4&gt;32,"D","E")))))))</f>
-        <v>A1</v>
-      </c>
-      <c r="AV4" s="44" t="str">
-        <f t="shared" ref="AV4:AV43" si="18">IF(AP4&gt;90,"A1",IF(AP4&gt;80,"A2",IF(AP4&gt;70,"B1",IF(AP4&gt;60,"B2",IF(AP4&gt;50,"C1",IF(AP4&gt;40,"C2",IF(AP4&gt;32,"D","E")))))))</f>
-        <v>A1</v>
-      </c>
-      <c r="AW4" s="44" t="str">
-        <f t="shared" ref="AW4:AW43" si="19">IF(AQ4&gt;90,"A1",IF(AQ4&gt;80,"A2",IF(AQ4&gt;70,"B1",IF(AQ4&gt;60,"B2",IF(AQ4&gt;50,"C1",IF(AQ4&gt;40,"C2",IF(AQ4&gt;32,"D","E")))))))</f>
-        <v>A1</v>
-      </c>
-      <c r="AX4" s="44"/>
-      <c r="AY4" s="17">
+      <c r="AV4" s="33" t="str">
+        <f t="shared" ref="AV4:AV43" si="13">IF(AP4&gt;90,"A1",IF(AP4&gt;80,"A2",IF(AP4&gt;70,"B1",IF(AP4&gt;60,"B2",IF(AP4&gt;50,"C1",IF(AP4&gt;40,"C2",IF(AP4&gt;32,"D","E")))))))</f>
+        <v>A2</v>
+      </c>
+      <c r="AW4" s="33" t="str">
+        <f t="shared" ref="AW4:AW43" si="14">IF(AQ4&gt;90,"A1",IF(AQ4&gt;80,"A2",IF(AQ4&gt;70,"B1",IF(AQ4&gt;60,"B2",IF(AQ4&gt;50,"C1",IF(AQ4&gt;40,"C2",IF(AQ4&gt;32,"D","E")))))))</f>
+        <v>A2</v>
+      </c>
+      <c r="AX4" s="33"/>
+      <c r="AY4" s="4">
         <v>500</v>
       </c>
-      <c r="AZ4" s="45">
+      <c r="AZ4" s="34">
         <f t="shared" si="3"/>
         <v>431</v>
       </c>
-      <c r="BA4" s="18">
+      <c r="BA4" s="17">
         <f t="shared" si="4"/>
         <v>86</v>
       </c>
-      <c r="BB4" s="17">
+      <c r="BB4" s="4">
         <v>144</v>
       </c>
-      <c r="BC4" s="17">
+      <c r="BC4" s="4">
         <v>170</v>
       </c>
-      <c r="BD4" s="46">
+      <c r="BD4" s="35">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A5" s="47">
+    <row r="5" spans="1:56">
+      <c r="A5" s="36">
         <v>3</v>
       </c>
       <c r="B5" s="7">
@@ -2062,25 +2060,25 @@
         <v>16</v>
       </c>
       <c r="N5" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="O5" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="O5" s="11" t="s">
-        <v>197</v>
-      </c>
       <c r="P5" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S5" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="U5" s="9">
         <v>20</v>
@@ -2098,7 +2096,7 @@
         <v>18</v>
       </c>
       <c r="Z5" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA5" s="9">
         <v>25</v>
@@ -2116,94 +2114,94 @@
         <v>29</v>
       </c>
       <c r="AF5" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG5" s="48">
+        <v>195</v>
+      </c>
+      <c r="AG5" s="37">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
-      <c r="AH5" s="48">
+      <c r="AH5" s="37">
         <f t="shared" si="6"/>
         <v>64</v>
       </c>
-      <c r="AI5" s="48">
+      <c r="AI5" s="37">
         <f t="shared" si="7"/>
         <v>65</v>
       </c>
-      <c r="AJ5" s="48">
+      <c r="AJ5" s="37">
         <f t="shared" si="8"/>
         <v>63</v>
       </c>
-      <c r="AK5" s="48">
+      <c r="AK5" s="37">
         <f t="shared" si="9"/>
         <v>63</v>
       </c>
-      <c r="AL5" s="48"/>
-      <c r="AM5" s="49">
+      <c r="AL5" s="37"/>
+      <c r="AM5" s="38">
+        <f>ROUND(AG5/70*100,0)</f>
+        <v>87</v>
+      </c>
+      <c r="AN5" s="38">
+        <f>ROUND(AH5/70*100,0)</f>
+        <v>91</v>
+      </c>
+      <c r="AO5" s="38">
+        <f>ROUND(AI5/70*100,0)</f>
+        <v>93</v>
+      </c>
+      <c r="AP5" s="38">
+        <f>ROUND(AJ5/70*100,0)</f>
+        <v>90</v>
+      </c>
+      <c r="AQ5" s="38">
+        <f>ROUND(AK5/70*100,0)</f>
+        <v>90</v>
+      </c>
+      <c r="AR5" s="38"/>
+      <c r="AS5" s="38" t="str">
         <f t="shared" si="10"/>
-        <v>76</v>
-      </c>
-      <c r="AN5" s="49">
+        <v>A2</v>
+      </c>
+      <c r="AT5" s="38" t="str">
         <f t="shared" si="11"/>
-        <v>80</v>
-      </c>
-      <c r="AO5" s="49">
+        <v>A1</v>
+      </c>
+      <c r="AU5" s="38" t="str">
         <f t="shared" si="12"/>
-        <v>81</v>
-      </c>
-      <c r="AP5" s="49">
+        <v>A1</v>
+      </c>
+      <c r="AV5" s="38" t="str">
         <f t="shared" si="13"/>
-        <v>79</v>
-      </c>
-      <c r="AQ5" s="49">
+        <v>A2</v>
+      </c>
+      <c r="AW5" s="38" t="str">
         <f t="shared" si="14"/>
-        <v>79</v>
-      </c>
-      <c r="AR5" s="49"/>
-      <c r="AS5" s="49" t="str">
-        <f t="shared" si="15"/>
-        <v>B1</v>
-      </c>
-      <c r="AT5" s="49" t="str">
-        <f t="shared" si="16"/>
-        <v>B1</v>
-      </c>
-      <c r="AU5" s="49" t="str">
-        <f t="shared" si="17"/>
         <v>A2</v>
       </c>
-      <c r="AV5" s="49" t="str">
-        <f t="shared" si="18"/>
-        <v>B1</v>
-      </c>
-      <c r="AW5" s="49" t="str">
-        <f t="shared" si="19"/>
-        <v>B1</v>
-      </c>
-      <c r="AX5" s="49"/>
-      <c r="AY5" s="19">
+      <c r="AX5" s="38"/>
+      <c r="AY5" s="18">
         <v>350</v>
       </c>
-      <c r="AZ5" s="50">
+      <c r="AZ5" s="39">
         <f t="shared" si="3"/>
         <v>316</v>
       </c>
-      <c r="BA5" s="20">
+      <c r="BA5" s="19">
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="BB5" s="19">
+      <c r="BB5" s="18">
         <v>111</v>
       </c>
-      <c r="BC5" s="19">
+      <c r="BC5" s="18">
         <v>170</v>
       </c>
-      <c r="BD5" s="51">
+      <c r="BD5" s="40">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A6" s="47">
+    <row r="6" spans="1:56">
+      <c r="A6" s="36">
         <v>4</v>
       </c>
       <c r="B6" s="7">
@@ -2261,7 +2259,7 @@
         <v>19</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U6" s="9">
         <v>11</v>
@@ -2279,7 +2277,7 @@
         <v>15</v>
       </c>
       <c r="Z6" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA6" s="9">
         <v>24</v>
@@ -2297,94 +2295,94 @@
         <v>24</v>
       </c>
       <c r="AF6" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG6" s="48">
+        <v>195</v>
+      </c>
+      <c r="AG6" s="37">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
-      <c r="AH6" s="48">
+      <c r="AH6" s="37">
         <f t="shared" si="6"/>
         <v>53</v>
       </c>
-      <c r="AI6" s="48">
+      <c r="AI6" s="37">
         <f t="shared" si="7"/>
         <v>66</v>
       </c>
-      <c r="AJ6" s="48">
+      <c r="AJ6" s="37">
         <f t="shared" si="8"/>
         <v>56</v>
       </c>
-      <c r="AK6" s="48">
+      <c r="AK6" s="37">
         <f t="shared" si="9"/>
         <v>58</v>
       </c>
-      <c r="AL6" s="48"/>
-      <c r="AM6" s="49">
+      <c r="AL6" s="37"/>
+      <c r="AM6" s="38">
+        <f t="shared" ref="AM6:AM43" si="15">ROUND(AG6/80*100,0)</f>
+        <v>76</v>
+      </c>
+      <c r="AN6" s="38">
+        <f t="shared" ref="AN6:AN43" si="16">ROUND(AH6/80*100,0)</f>
+        <v>66</v>
+      </c>
+      <c r="AO6" s="38">
+        <f t="shared" ref="AO6:AO43" si="17">ROUND(AI6/80*100,0)</f>
+        <v>83</v>
+      </c>
+      <c r="AP6" s="38">
+        <f t="shared" ref="AP6:AP43" si="18">ROUND(AJ6/80*100,0)</f>
+        <v>70</v>
+      </c>
+      <c r="AQ6" s="38">
+        <f t="shared" ref="AQ6:AQ43" si="19">ROUND(AK6/80*100,0)</f>
+        <v>73</v>
+      </c>
+      <c r="AR6" s="38"/>
+      <c r="AS6" s="38" t="str">
         <f t="shared" si="10"/>
-        <v>76</v>
-      </c>
-      <c r="AN6" s="49">
+        <v>B1</v>
+      </c>
+      <c r="AT6" s="38" t="str">
         <f t="shared" si="11"/>
-        <v>66</v>
-      </c>
-      <c r="AO6" s="49">
+        <v>B2</v>
+      </c>
+      <c r="AU6" s="38" t="str">
         <f t="shared" si="12"/>
-        <v>83</v>
-      </c>
-      <c r="AP6" s="49">
+        <v>A2</v>
+      </c>
+      <c r="AV6" s="38" t="str">
         <f t="shared" si="13"/>
-        <v>70</v>
-      </c>
-      <c r="AQ6" s="49">
+        <v>B2</v>
+      </c>
+      <c r="AW6" s="38" t="str">
         <f t="shared" si="14"/>
-        <v>73</v>
-      </c>
-      <c r="AR6" s="49"/>
-      <c r="AS6" s="49" t="str">
-        <f t="shared" si="15"/>
         <v>B1</v>
       </c>
-      <c r="AT6" s="49" t="str">
-        <f t="shared" si="16"/>
-        <v>B2</v>
-      </c>
-      <c r="AU6" s="49" t="str">
-        <f t="shared" si="17"/>
-        <v>A2</v>
-      </c>
-      <c r="AV6" s="49" t="str">
-        <f t="shared" si="18"/>
-        <v>B2</v>
-      </c>
-      <c r="AW6" s="49" t="str">
-        <f t="shared" si="19"/>
-        <v>B1</v>
-      </c>
-      <c r="AX6" s="49"/>
-      <c r="AY6" s="19">
+      <c r="AX6" s="38"/>
+      <c r="AY6" s="18">
         <v>400</v>
       </c>
-      <c r="AZ6" s="50">
+      <c r="AZ6" s="39">
         <f t="shared" si="3"/>
         <v>294</v>
       </c>
-      <c r="BA6" s="20">
+      <c r="BA6" s="19">
         <f t="shared" si="4"/>
         <v>74</v>
       </c>
-      <c r="BB6" s="19">
+      <c r="BB6" s="18">
         <v>114</v>
       </c>
-      <c r="BC6" s="19">
+      <c r="BC6" s="18">
         <v>170</v>
       </c>
-      <c r="BD6" s="51">
+      <c r="BD6" s="40">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A7" s="42">
+    <row r="7" spans="1:56">
+      <c r="A7" s="31">
         <v>5</v>
       </c>
       <c r="B7" s="3">
@@ -2424,7 +2422,7 @@
         <v>16</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O7" s="6">
         <v>29</v>
@@ -2442,7 +2440,7 @@
         <v>26</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U7" s="4">
         <v>18</v>
@@ -2460,7 +2458,7 @@
         <v>15</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA7" s="4">
         <v>27</v>
@@ -2478,94 +2476,94 @@
         <v>27</v>
       </c>
       <c r="AF7" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG7" s="43">
+        <v>195</v>
+      </c>
+      <c r="AG7" s="32">
         <f t="shared" si="5"/>
         <v>91</v>
       </c>
-      <c r="AH7" s="43">
+      <c r="AH7" s="32">
         <f t="shared" si="6"/>
         <v>96</v>
       </c>
-      <c r="AI7" s="43">
+      <c r="AI7" s="32">
         <f t="shared" si="7"/>
         <v>96</v>
       </c>
-      <c r="AJ7" s="43">
+      <c r="AJ7" s="32">
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="AK7" s="43">
+      <c r="AK7" s="32">
         <f t="shared" si="9"/>
         <v>84</v>
       </c>
-      <c r="AL7" s="43"/>
-      <c r="AM7" s="44">
+      <c r="AL7" s="32"/>
+      <c r="AM7" s="33">
+        <f>ROUND(AG7/100*100,0)</f>
+        <v>91</v>
+      </c>
+      <c r="AN7" s="33">
+        <f>ROUND(AH7/100*100,0)</f>
+        <v>96</v>
+      </c>
+      <c r="AO7" s="33">
+        <f>ROUND(AI7/100*100,0)</f>
+        <v>96</v>
+      </c>
+      <c r="AP7" s="33">
+        <f>ROUND(AJ7/100*100,0)</f>
+        <v>90</v>
+      </c>
+      <c r="AQ7" s="33">
+        <f>ROUND(AK7/100*100,0)</f>
+        <v>84</v>
+      </c>
+      <c r="AR7" s="33"/>
+      <c r="AS7" s="33" t="str">
         <f t="shared" si="10"/>
-        <v>114</v>
-      </c>
-      <c r="AN7" s="44">
+        <v>A1</v>
+      </c>
+      <c r="AT7" s="33" t="str">
         <f t="shared" si="11"/>
-        <v>120</v>
-      </c>
-      <c r="AO7" s="44">
+        <v>A1</v>
+      </c>
+      <c r="AU7" s="33" t="str">
         <f t="shared" si="12"/>
-        <v>120</v>
-      </c>
-      <c r="AP7" s="44">
+        <v>A1</v>
+      </c>
+      <c r="AV7" s="33" t="str">
         <f t="shared" si="13"/>
-        <v>113</v>
-      </c>
-      <c r="AQ7" s="44">
+        <v>A2</v>
+      </c>
+      <c r="AW7" s="33" t="str">
         <f t="shared" si="14"/>
-        <v>105</v>
-      </c>
-      <c r="AR7" s="44"/>
-      <c r="AS7" s="44" t="str">
-        <f t="shared" si="15"/>
-        <v>A1</v>
-      </c>
-      <c r="AT7" s="44" t="str">
-        <f t="shared" si="16"/>
-        <v>A1</v>
-      </c>
-      <c r="AU7" s="44" t="str">
-        <f t="shared" si="17"/>
-        <v>A1</v>
-      </c>
-      <c r="AV7" s="44" t="str">
-        <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
-      <c r="AW7" s="44" t="str">
-        <f t="shared" si="19"/>
-        <v>A1</v>
-      </c>
-      <c r="AX7" s="44"/>
-      <c r="AY7" s="17">
+        <v>A2</v>
+      </c>
+      <c r="AX7" s="33"/>
+      <c r="AY7" s="4">
         <v>500</v>
       </c>
-      <c r="AZ7" s="45">
+      <c r="AZ7" s="34">
         <f t="shared" si="3"/>
         <v>457</v>
       </c>
-      <c r="BA7" s="18">
+      <c r="BA7" s="17">
         <f t="shared" si="4"/>
         <v>91</v>
       </c>
-      <c r="BB7" s="17">
+      <c r="BB7" s="4">
         <v>110</v>
       </c>
-      <c r="BC7" s="17">
+      <c r="BC7" s="4">
         <v>170</v>
       </c>
-      <c r="BD7" s="46">
+      <c r="BD7" s="35">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A8" s="47">
+    <row r="8" spans="1:56">
+      <c r="A8" s="36">
         <v>6</v>
       </c>
       <c r="B8" s="7">
@@ -2623,7 +2621,7 @@
         <v>26</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U8" s="9">
         <v>16</v>
@@ -2641,7 +2639,7 @@
         <v>18</v>
       </c>
       <c r="Z8" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA8" s="9">
         <v>19</v>
@@ -2659,94 +2657,94 @@
         <v>24</v>
       </c>
       <c r="AF8" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG8" s="48">
+        <v>195</v>
+      </c>
+      <c r="AG8" s="37">
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
-      <c r="AH8" s="48">
+      <c r="AH8" s="37">
         <f t="shared" si="6"/>
         <v>65</v>
       </c>
-      <c r="AI8" s="48">
+      <c r="AI8" s="37">
         <f t="shared" si="7"/>
         <v>75</v>
       </c>
-      <c r="AJ8" s="48">
+      <c r="AJ8" s="37">
         <f t="shared" si="8"/>
         <v>57</v>
       </c>
-      <c r="AK8" s="48">
+      <c r="AK8" s="37">
         <f t="shared" si="9"/>
         <v>68</v>
       </c>
-      <c r="AL8" s="48"/>
-      <c r="AM8" s="49">
+      <c r="AL8" s="37"/>
+      <c r="AM8" s="38">
+        <f t="shared" si="15"/>
+        <v>79</v>
+      </c>
+      <c r="AN8" s="38">
+        <f t="shared" si="16"/>
+        <v>81</v>
+      </c>
+      <c r="AO8" s="38">
+        <f t="shared" si="17"/>
+        <v>94</v>
+      </c>
+      <c r="AP8" s="38">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="AQ8" s="38">
+        <f t="shared" si="19"/>
+        <v>85</v>
+      </c>
+      <c r="AR8" s="38"/>
+      <c r="AS8" s="38" t="str">
         <f t="shared" si="10"/>
-        <v>79</v>
-      </c>
-      <c r="AN8" s="49">
+        <v>B1</v>
+      </c>
+      <c r="AT8" s="38" t="str">
         <f t="shared" si="11"/>
-        <v>81</v>
-      </c>
-      <c r="AO8" s="49">
+        <v>A2</v>
+      </c>
+      <c r="AU8" s="38" t="str">
         <f t="shared" si="12"/>
-        <v>94</v>
-      </c>
-      <c r="AP8" s="49">
+        <v>A1</v>
+      </c>
+      <c r="AV8" s="38" t="str">
         <f t="shared" si="13"/>
-        <v>71</v>
-      </c>
-      <c r="AQ8" s="49">
+        <v>B1</v>
+      </c>
+      <c r="AW8" s="38" t="str">
         <f t="shared" si="14"/>
-        <v>85</v>
-      </c>
-      <c r="AR8" s="49"/>
-      <c r="AS8" s="49" t="str">
-        <f t="shared" si="15"/>
-        <v>B1</v>
-      </c>
-      <c r="AT8" s="49" t="str">
-        <f t="shared" si="16"/>
         <v>A2</v>
       </c>
-      <c r="AU8" s="49" t="str">
-        <f t="shared" si="17"/>
-        <v>A1</v>
-      </c>
-      <c r="AV8" s="49" t="str">
-        <f t="shared" si="18"/>
-        <v>B1</v>
-      </c>
-      <c r="AW8" s="49" t="str">
-        <f t="shared" si="19"/>
-        <v>A2</v>
-      </c>
-      <c r="AX8" s="49"/>
-      <c r="AY8" s="19">
+      <c r="AX8" s="38"/>
+      <c r="AY8" s="18">
         <v>400</v>
       </c>
-      <c r="AZ8" s="50">
+      <c r="AZ8" s="39">
         <f t="shared" si="3"/>
         <v>328</v>
       </c>
-      <c r="BA8" s="20">
+      <c r="BA8" s="19">
         <f t="shared" si="4"/>
         <v>82</v>
       </c>
-      <c r="BB8" s="19">
+      <c r="BB8" s="18">
         <v>123</v>
       </c>
-      <c r="BC8" s="19">
+      <c r="BC8" s="18">
         <v>170</v>
       </c>
-      <c r="BD8" s="51">
+      <c r="BD8" s="40">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A9" s="47">
+    <row r="9" spans="1:56">
+      <c r="A9" s="36">
         <v>7</v>
       </c>
       <c r="B9" s="7">
@@ -2804,7 +2802,7 @@
         <v>28</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U9" s="9">
         <v>19</v>
@@ -2822,7 +2820,7 @@
         <v>16</v>
       </c>
       <c r="Z9" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA9" s="9">
         <v>25</v>
@@ -2840,94 +2838,94 @@
         <v>29</v>
       </c>
       <c r="AF9" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG9" s="48">
+        <v>195</v>
+      </c>
+      <c r="AG9" s="37">
         <f t="shared" si="5"/>
         <v>73</v>
       </c>
-      <c r="AH9" s="48">
+      <c r="AH9" s="37">
         <f t="shared" si="6"/>
         <v>76</v>
       </c>
-      <c r="AI9" s="48">
+      <c r="AI9" s="37">
         <f t="shared" si="7"/>
         <v>78</v>
       </c>
-      <c r="AJ9" s="48">
+      <c r="AJ9" s="37">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
-      <c r="AK9" s="48">
+      <c r="AK9" s="37">
         <f t="shared" si="9"/>
         <v>73</v>
       </c>
-      <c r="AL9" s="48"/>
-      <c r="AM9" s="49">
+      <c r="AL9" s="37"/>
+      <c r="AM9" s="38">
+        <f t="shared" si="15"/>
+        <v>91</v>
+      </c>
+      <c r="AN9" s="38">
+        <f t="shared" si="16"/>
+        <v>95</v>
+      </c>
+      <c r="AO9" s="38">
+        <f t="shared" si="17"/>
+        <v>98</v>
+      </c>
+      <c r="AP9" s="38">
+        <f t="shared" si="18"/>
+        <v>85</v>
+      </c>
+      <c r="AQ9" s="38">
+        <f t="shared" si="19"/>
+        <v>91</v>
+      </c>
+      <c r="AR9" s="38"/>
+      <c r="AS9" s="38" t="str">
         <f t="shared" si="10"/>
-        <v>91</v>
-      </c>
-      <c r="AN9" s="49">
+        <v>A1</v>
+      </c>
+      <c r="AT9" s="38" t="str">
         <f t="shared" si="11"/>
-        <v>95</v>
-      </c>
-      <c r="AO9" s="49">
+        <v>A1</v>
+      </c>
+      <c r="AU9" s="38" t="str">
         <f t="shared" si="12"/>
-        <v>98</v>
-      </c>
-      <c r="AP9" s="49">
+        <v>A1</v>
+      </c>
+      <c r="AV9" s="38" t="str">
         <f t="shared" si="13"/>
-        <v>85</v>
-      </c>
-      <c r="AQ9" s="49">
+        <v>A2</v>
+      </c>
+      <c r="AW9" s="38" t="str">
         <f t="shared" si="14"/>
-        <v>91</v>
-      </c>
-      <c r="AR9" s="49"/>
-      <c r="AS9" s="49" t="str">
-        <f t="shared" si="15"/>
         <v>A1</v>
       </c>
-      <c r="AT9" s="49" t="str">
-        <f t="shared" si="16"/>
-        <v>A1</v>
-      </c>
-      <c r="AU9" s="49" t="str">
-        <f t="shared" si="17"/>
-        <v>A1</v>
-      </c>
-      <c r="AV9" s="49" t="str">
-        <f t="shared" si="18"/>
-        <v>A2</v>
-      </c>
-      <c r="AW9" s="49" t="str">
-        <f t="shared" si="19"/>
-        <v>A1</v>
-      </c>
-      <c r="AX9" s="49"/>
-      <c r="AY9" s="19">
+      <c r="AX9" s="38"/>
+      <c r="AY9" s="18">
         <v>400</v>
       </c>
-      <c r="AZ9" s="50">
+      <c r="AZ9" s="39">
         <f t="shared" si="3"/>
         <v>368</v>
       </c>
-      <c r="BA9" s="20">
+      <c r="BA9" s="19">
         <f t="shared" si="4"/>
         <v>92</v>
       </c>
-      <c r="BB9" s="19">
+      <c r="BB9" s="18">
         <v>114</v>
       </c>
-      <c r="BC9" s="19">
+      <c r="BC9" s="18">
         <v>170</v>
       </c>
-      <c r="BD9" s="51">
+      <c r="BD9" s="40">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A10" s="47">
+    <row r="10" spans="1:56">
+      <c r="A10" s="36">
         <v>8</v>
       </c>
       <c r="B10" s="7">
@@ -2937,7 +2935,7 @@
         <v>49</v>
       </c>
       <c r="D10" s="9">
-        <v>9999999999</v>
+        <v>8958971541</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>82</v>
@@ -2985,7 +2983,7 @@
         <v>19</v>
       </c>
       <c r="T10" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U10" s="9">
         <v>8</v>
@@ -3003,7 +3001,7 @@
         <v>15</v>
       </c>
       <c r="Z10" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA10" s="9">
         <v>10</v>
@@ -3021,94 +3019,94 @@
         <v>24</v>
       </c>
       <c r="AF10" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG10" s="48">
+        <v>195</v>
+      </c>
+      <c r="AG10" s="37">
         <f t="shared" si="5"/>
         <v>36</v>
       </c>
-      <c r="AH10" s="48">
+      <c r="AH10" s="37">
         <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="AI10" s="48">
+      <c r="AI10" s="37">
         <f t="shared" si="7"/>
         <v>43</v>
       </c>
-      <c r="AJ10" s="48">
+      <c r="AJ10" s="37">
         <f t="shared" si="8"/>
         <v>33</v>
       </c>
-      <c r="AK10" s="48">
+      <c r="AK10" s="37">
         <f t="shared" si="9"/>
         <v>58</v>
       </c>
-      <c r="AL10" s="48"/>
-      <c r="AM10" s="49">
+      <c r="AL10" s="37"/>
+      <c r="AM10" s="38">
+        <f t="shared" si="15"/>
+        <v>45</v>
+      </c>
+      <c r="AN10" s="38">
+        <f t="shared" si="16"/>
+        <v>44</v>
+      </c>
+      <c r="AO10" s="38">
+        <f t="shared" si="17"/>
+        <v>54</v>
+      </c>
+      <c r="AP10" s="38">
+        <f t="shared" si="18"/>
+        <v>41</v>
+      </c>
+      <c r="AQ10" s="38">
+        <f t="shared" si="19"/>
+        <v>73</v>
+      </c>
+      <c r="AR10" s="38"/>
+      <c r="AS10" s="38" t="str">
         <f t="shared" si="10"/>
-        <v>45</v>
-      </c>
-      <c r="AN10" s="49">
+        <v>C2</v>
+      </c>
+      <c r="AT10" s="38" t="str">
         <f t="shared" si="11"/>
-        <v>44</v>
-      </c>
-      <c r="AO10" s="49">
+        <v>C2</v>
+      </c>
+      <c r="AU10" s="38" t="str">
         <f t="shared" si="12"/>
-        <v>54</v>
-      </c>
-      <c r="AP10" s="49">
+        <v>C1</v>
+      </c>
+      <c r="AV10" s="38" t="str">
         <f t="shared" si="13"/>
-        <v>41</v>
-      </c>
-      <c r="AQ10" s="49">
+        <v>C2</v>
+      </c>
+      <c r="AW10" s="38" t="str">
         <f t="shared" si="14"/>
-        <v>73</v>
-      </c>
-      <c r="AR10" s="49"/>
-      <c r="AS10" s="49" t="str">
-        <f t="shared" si="15"/>
-        <v>C2</v>
-      </c>
-      <c r="AT10" s="49" t="str">
-        <f t="shared" si="16"/>
-        <v>C2</v>
-      </c>
-      <c r="AU10" s="49" t="str">
-        <f t="shared" si="17"/>
-        <v>C1</v>
-      </c>
-      <c r="AV10" s="49" t="str">
-        <f t="shared" si="18"/>
-        <v>C2</v>
-      </c>
-      <c r="AW10" s="49" t="str">
-        <f t="shared" si="19"/>
         <v>B1</v>
       </c>
-      <c r="AX10" s="49"/>
-      <c r="AY10" s="19">
+      <c r="AX10" s="38"/>
+      <c r="AY10" s="18">
         <v>400</v>
       </c>
-      <c r="AZ10" s="50">
+      <c r="AZ10" s="39">
         <f t="shared" si="3"/>
         <v>205</v>
       </c>
-      <c r="BA10" s="20">
+      <c r="BA10" s="19">
         <f t="shared" si="4"/>
         <v>51</v>
       </c>
-      <c r="BB10" s="19">
+      <c r="BB10" s="18">
         <v>146</v>
       </c>
-      <c r="BC10" s="19">
+      <c r="BC10" s="18">
         <v>170</v>
       </c>
-      <c r="BD10" s="51">
+      <c r="BD10" s="40">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A11" s="42">
+    <row r="11" spans="1:56">
+      <c r="A11" s="31">
         <v>9</v>
       </c>
       <c r="B11" s="3">
@@ -3148,7 +3146,7 @@
         <v>19</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O11" s="6">
         <v>29</v>
@@ -3166,7 +3164,7 @@
         <v>29</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U11" s="4">
         <v>20</v>
@@ -3184,7 +3182,7 @@
         <v>20</v>
       </c>
       <c r="Z11" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA11" s="4">
         <v>30</v>
@@ -3202,94 +3200,94 @@
         <v>30</v>
       </c>
       <c r="AF11" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG11" s="43">
+        <v>195</v>
+      </c>
+      <c r="AG11" s="32">
         <f t="shared" si="5"/>
         <v>99</v>
       </c>
-      <c r="AH11" s="43">
+      <c r="AH11" s="32">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="AI11" s="43">
+      <c r="AI11" s="32">
         <f t="shared" si="7"/>
         <v>99</v>
       </c>
-      <c r="AJ11" s="43">
+      <c r="AJ11" s="32">
         <f t="shared" si="8"/>
         <v>99</v>
       </c>
-      <c r="AK11" s="43">
+      <c r="AK11" s="32">
         <f t="shared" si="9"/>
         <v>98</v>
       </c>
-      <c r="AL11" s="43"/>
-      <c r="AM11" s="44">
+      <c r="AL11" s="32"/>
+      <c r="AM11" s="33">
+        <f t="shared" ref="AM11:AM18" si="20">ROUND(AG11/100*100,0)</f>
+        <v>99</v>
+      </c>
+      <c r="AN11" s="33">
+        <f t="shared" ref="AN11:AN18" si="21">ROUND(AH11/100*100,0)</f>
+        <v>100</v>
+      </c>
+      <c r="AO11" s="33">
+        <f t="shared" ref="AO11:AO18" si="22">ROUND(AI11/100*100,0)</f>
+        <v>99</v>
+      </c>
+      <c r="AP11" s="33">
+        <f t="shared" ref="AP11:AP18" si="23">ROUND(AJ11/100*100,0)</f>
+        <v>99</v>
+      </c>
+      <c r="AQ11" s="33">
+        <f t="shared" ref="AQ11:AQ18" si="24">ROUND(AK11/100*100,0)</f>
+        <v>98</v>
+      </c>
+      <c r="AR11" s="33"/>
+      <c r="AS11" s="33" t="str">
         <f t="shared" si="10"/>
-        <v>124</v>
-      </c>
-      <c r="AN11" s="44">
+        <v>A1</v>
+      </c>
+      <c r="AT11" s="33" t="str">
         <f t="shared" si="11"/>
-        <v>125</v>
-      </c>
-      <c r="AO11" s="44">
+        <v>A1</v>
+      </c>
+      <c r="AU11" s="33" t="str">
         <f t="shared" si="12"/>
-        <v>124</v>
-      </c>
-      <c r="AP11" s="44">
+        <v>A1</v>
+      </c>
+      <c r="AV11" s="33" t="str">
         <f t="shared" si="13"/>
-        <v>124</v>
-      </c>
-      <c r="AQ11" s="44">
+        <v>A1</v>
+      </c>
+      <c r="AW11" s="33" t="str">
         <f t="shared" si="14"/>
-        <v>123</v>
-      </c>
-      <c r="AR11" s="44"/>
-      <c r="AS11" s="44" t="str">
-        <f t="shared" si="15"/>
         <v>A1</v>
       </c>
-      <c r="AT11" s="44" t="str">
-        <f t="shared" si="16"/>
-        <v>A1</v>
-      </c>
-      <c r="AU11" s="44" t="str">
-        <f t="shared" si="17"/>
-        <v>A1</v>
-      </c>
-      <c r="AV11" s="44" t="str">
-        <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
-      <c r="AW11" s="44" t="str">
-        <f t="shared" si="19"/>
-        <v>A1</v>
-      </c>
-      <c r="AX11" s="44"/>
-      <c r="AY11" s="17">
+      <c r="AX11" s="33"/>
+      <c r="AY11" s="4">
         <v>500</v>
       </c>
-      <c r="AZ11" s="45">
+      <c r="AZ11" s="34">
         <f t="shared" si="3"/>
         <v>495</v>
       </c>
-      <c r="BA11" s="18">
+      <c r="BA11" s="17">
         <f t="shared" si="4"/>
         <v>99</v>
       </c>
-      <c r="BB11" s="17">
+      <c r="BB11" s="4">
         <v>153</v>
       </c>
-      <c r="BC11" s="17">
+      <c r="BC11" s="4">
         <v>170</v>
       </c>
-      <c r="BD11" s="46">
+      <c r="BD11" s="35">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A12" s="42">
+    <row r="12" spans="1:56">
+      <c r="A12" s="31">
         <v>10</v>
       </c>
       <c r="B12" s="3">
@@ -3329,7 +3327,7 @@
         <v>16</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O12" s="6">
         <v>28</v>
@@ -3347,7 +3345,7 @@
         <v>26</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U12" s="4">
         <v>13</v>
@@ -3365,7 +3363,7 @@
         <v>18</v>
       </c>
       <c r="Z12" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA12" s="4">
         <v>25</v>
@@ -3383,94 +3381,94 @@
         <v>29</v>
       </c>
       <c r="AF12" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG12" s="43">
+        <v>195</v>
+      </c>
+      <c r="AG12" s="32">
         <f t="shared" si="5"/>
         <v>84</v>
       </c>
-      <c r="AH12" s="43">
+      <c r="AH12" s="32">
         <f t="shared" si="6"/>
         <v>83</v>
       </c>
-      <c r="AI12" s="43">
+      <c r="AI12" s="32">
         <f t="shared" si="7"/>
         <v>84</v>
       </c>
-      <c r="AJ12" s="43">
+      <c r="AJ12" s="32">
         <f t="shared" si="8"/>
         <v>83</v>
       </c>
-      <c r="AK12" s="43">
+      <c r="AK12" s="32">
         <f t="shared" si="9"/>
         <v>89</v>
       </c>
-      <c r="AL12" s="43"/>
-      <c r="AM12" s="44">
+      <c r="AL12" s="32"/>
+      <c r="AM12" s="33">
+        <f t="shared" si="20"/>
+        <v>84</v>
+      </c>
+      <c r="AN12" s="33">
+        <f t="shared" si="21"/>
+        <v>83</v>
+      </c>
+      <c r="AO12" s="33">
+        <f t="shared" si="22"/>
+        <v>84</v>
+      </c>
+      <c r="AP12" s="33">
+        <f t="shared" si="23"/>
+        <v>83</v>
+      </c>
+      <c r="AQ12" s="33">
+        <f t="shared" si="24"/>
+        <v>89</v>
+      </c>
+      <c r="AR12" s="33"/>
+      <c r="AS12" s="33" t="str">
         <f t="shared" si="10"/>
-        <v>105</v>
-      </c>
-      <c r="AN12" s="44">
+        <v>A2</v>
+      </c>
+      <c r="AT12" s="33" t="str">
         <f t="shared" si="11"/>
-        <v>104</v>
-      </c>
-      <c r="AO12" s="44">
+        <v>A2</v>
+      </c>
+      <c r="AU12" s="33" t="str">
         <f t="shared" si="12"/>
-        <v>105</v>
-      </c>
-      <c r="AP12" s="44">
+        <v>A2</v>
+      </c>
+      <c r="AV12" s="33" t="str">
         <f t="shared" si="13"/>
-        <v>104</v>
-      </c>
-      <c r="AQ12" s="44">
+        <v>A2</v>
+      </c>
+      <c r="AW12" s="33" t="str">
         <f t="shared" si="14"/>
-        <v>111</v>
-      </c>
-      <c r="AR12" s="44"/>
-      <c r="AS12" s="44" t="str">
-        <f t="shared" si="15"/>
-        <v>A1</v>
-      </c>
-      <c r="AT12" s="44" t="str">
-        <f t="shared" si="16"/>
-        <v>A1</v>
-      </c>
-      <c r="AU12" s="44" t="str">
-        <f t="shared" si="17"/>
-        <v>A1</v>
-      </c>
-      <c r="AV12" s="44" t="str">
-        <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
-      <c r="AW12" s="44" t="str">
-        <f t="shared" si="19"/>
-        <v>A1</v>
-      </c>
-      <c r="AX12" s="44"/>
-      <c r="AY12" s="17">
+        <v>A2</v>
+      </c>
+      <c r="AX12" s="33"/>
+      <c r="AY12" s="4">
         <v>500</v>
       </c>
-      <c r="AZ12" s="45">
+      <c r="AZ12" s="34">
         <f t="shared" si="3"/>
         <v>423</v>
       </c>
-      <c r="BA12" s="18">
+      <c r="BA12" s="17">
         <f t="shared" si="4"/>
         <v>85</v>
       </c>
-      <c r="BB12" s="17">
+      <c r="BB12" s="4">
         <v>154</v>
       </c>
-      <c r="BC12" s="17">
+      <c r="BC12" s="4">
         <v>170</v>
       </c>
-      <c r="BD12" s="46">
+      <c r="BD12" s="35">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A13" s="42">
+    <row r="13" spans="1:56">
+      <c r="A13" s="31">
         <v>11</v>
       </c>
       <c r="B13" s="3">
@@ -3510,7 +3508,7 @@
         <v>17</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O13" s="6">
         <v>28</v>
@@ -3528,7 +3526,7 @@
         <v>26</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U13" s="4">
         <v>19</v>
@@ -3546,7 +3544,7 @@
         <v>18</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA13" s="4">
         <v>25</v>
@@ -3564,94 +3562,94 @@
         <v>30</v>
       </c>
       <c r="AF13" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG13" s="43">
+        <v>195</v>
+      </c>
+      <c r="AG13" s="32">
         <f t="shared" si="5"/>
         <v>89</v>
       </c>
-      <c r="AH13" s="43">
+      <c r="AH13" s="32">
         <f t="shared" si="6"/>
         <v>89</v>
       </c>
-      <c r="AI13" s="43">
+      <c r="AI13" s="32">
         <f t="shared" si="7"/>
         <v>96</v>
       </c>
-      <c r="AJ13" s="43">
+      <c r="AJ13" s="32">
         <f t="shared" si="8"/>
         <v>93</v>
       </c>
-      <c r="AK13" s="43">
+      <c r="AK13" s="32">
         <f t="shared" si="9"/>
         <v>91</v>
       </c>
-      <c r="AL13" s="43"/>
-      <c r="AM13" s="44">
+      <c r="AL13" s="32"/>
+      <c r="AM13" s="33">
+        <f t="shared" si="20"/>
+        <v>89</v>
+      </c>
+      <c r="AN13" s="33">
+        <f t="shared" si="21"/>
+        <v>89</v>
+      </c>
+      <c r="AO13" s="33">
+        <f t="shared" si="22"/>
+        <v>96</v>
+      </c>
+      <c r="AP13" s="33">
+        <f t="shared" si="23"/>
+        <v>93</v>
+      </c>
+      <c r="AQ13" s="33">
+        <f t="shared" si="24"/>
+        <v>91</v>
+      </c>
+      <c r="AR13" s="33"/>
+      <c r="AS13" s="33" t="str">
         <f t="shared" si="10"/>
-        <v>111</v>
-      </c>
-      <c r="AN13" s="44">
+        <v>A2</v>
+      </c>
+      <c r="AT13" s="33" t="str">
         <f t="shared" si="11"/>
-        <v>111</v>
-      </c>
-      <c r="AO13" s="44">
+        <v>A2</v>
+      </c>
+      <c r="AU13" s="33" t="str">
         <f t="shared" si="12"/>
-        <v>120</v>
-      </c>
-      <c r="AP13" s="44">
+        <v>A1</v>
+      </c>
+      <c r="AV13" s="33" t="str">
         <f t="shared" si="13"/>
-        <v>116</v>
-      </c>
-      <c r="AQ13" s="44">
+        <v>A1</v>
+      </c>
+      <c r="AW13" s="33" t="str">
         <f t="shared" si="14"/>
-        <v>114</v>
-      </c>
-      <c r="AR13" s="44"/>
-      <c r="AS13" s="44" t="str">
-        <f t="shared" si="15"/>
         <v>A1</v>
       </c>
-      <c r="AT13" s="44" t="str">
-        <f t="shared" si="16"/>
-        <v>A1</v>
-      </c>
-      <c r="AU13" s="44" t="str">
-        <f t="shared" si="17"/>
-        <v>A1</v>
-      </c>
-      <c r="AV13" s="44" t="str">
-        <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
-      <c r="AW13" s="44" t="str">
-        <f t="shared" si="19"/>
-        <v>A1</v>
-      </c>
-      <c r="AX13" s="44"/>
-      <c r="AY13" s="17">
+      <c r="AX13" s="33"/>
+      <c r="AY13" s="4">
         <v>500</v>
       </c>
-      <c r="AZ13" s="45">
+      <c r="AZ13" s="34">
         <f t="shared" si="3"/>
         <v>458</v>
       </c>
-      <c r="BA13" s="18">
+      <c r="BA13" s="17">
         <f t="shared" si="4"/>
         <v>92</v>
       </c>
-      <c r="BB13" s="17">
+      <c r="BB13" s="4">
         <v>141</v>
       </c>
-      <c r="BC13" s="17">
+      <c r="BC13" s="4">
         <v>170</v>
       </c>
-      <c r="BD13" s="46">
+      <c r="BD13" s="35">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A14" s="42">
+    <row r="14" spans="1:56">
+      <c r="A14" s="31">
         <v>12</v>
       </c>
       <c r="B14" s="3">
@@ -3691,7 +3689,7 @@
         <v>15</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O14" s="6">
         <v>28</v>
@@ -3709,7 +3707,7 @@
         <v>29</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U14" s="4">
         <v>19</v>
@@ -3727,7 +3725,7 @@
         <v>20</v>
       </c>
       <c r="Z14" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA14" s="4">
         <v>22</v>
@@ -3745,94 +3743,94 @@
         <v>29</v>
       </c>
       <c r="AF14" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG14" s="43">
+        <v>195</v>
+      </c>
+      <c r="AG14" s="32">
         <f t="shared" si="5"/>
         <v>85</v>
       </c>
-      <c r="AH14" s="43">
+      <c r="AH14" s="32">
         <f t="shared" si="6"/>
         <v>86</v>
       </c>
-      <c r="AI14" s="43">
+      <c r="AI14" s="32">
         <f t="shared" si="7"/>
         <v>91</v>
       </c>
-      <c r="AJ14" s="43">
+      <c r="AJ14" s="32">
         <f t="shared" si="8"/>
         <v>85</v>
       </c>
-      <c r="AK14" s="43">
+      <c r="AK14" s="32">
         <f t="shared" si="9"/>
         <v>93</v>
       </c>
-      <c r="AL14" s="43"/>
-      <c r="AM14" s="44">
+      <c r="AL14" s="32"/>
+      <c r="AM14" s="33">
+        <f t="shared" si="20"/>
+        <v>85</v>
+      </c>
+      <c r="AN14" s="33">
+        <f t="shared" si="21"/>
+        <v>86</v>
+      </c>
+      <c r="AO14" s="33">
+        <f t="shared" si="22"/>
+        <v>91</v>
+      </c>
+      <c r="AP14" s="33">
+        <f t="shared" si="23"/>
+        <v>85</v>
+      </c>
+      <c r="AQ14" s="33">
+        <f t="shared" si="24"/>
+        <v>93</v>
+      </c>
+      <c r="AR14" s="33"/>
+      <c r="AS14" s="33" t="str">
         <f t="shared" si="10"/>
-        <v>106</v>
-      </c>
-      <c r="AN14" s="44">
+        <v>A2</v>
+      </c>
+      <c r="AT14" s="33" t="str">
         <f t="shared" si="11"/>
-        <v>108</v>
-      </c>
-      <c r="AO14" s="44">
+        <v>A2</v>
+      </c>
+      <c r="AU14" s="33" t="str">
         <f t="shared" si="12"/>
-        <v>114</v>
-      </c>
-      <c r="AP14" s="44">
+        <v>A1</v>
+      </c>
+      <c r="AV14" s="33" t="str">
         <f t="shared" si="13"/>
-        <v>106</v>
-      </c>
-      <c r="AQ14" s="44">
+        <v>A2</v>
+      </c>
+      <c r="AW14" s="33" t="str">
         <f t="shared" si="14"/>
-        <v>116</v>
-      </c>
-      <c r="AR14" s="44"/>
-      <c r="AS14" s="44" t="str">
-        <f t="shared" si="15"/>
         <v>A1</v>
       </c>
-      <c r="AT14" s="44" t="str">
-        <f t="shared" si="16"/>
-        <v>A1</v>
-      </c>
-      <c r="AU14" s="44" t="str">
-        <f t="shared" si="17"/>
-        <v>A1</v>
-      </c>
-      <c r="AV14" s="44" t="str">
-        <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
-      <c r="AW14" s="44" t="str">
-        <f t="shared" si="19"/>
-        <v>A1</v>
-      </c>
-      <c r="AX14" s="44"/>
-      <c r="AY14" s="17">
+      <c r="AX14" s="33"/>
+      <c r="AY14" s="4">
         <v>500</v>
       </c>
-      <c r="AZ14" s="45">
+      <c r="AZ14" s="34">
         <f t="shared" si="3"/>
         <v>440</v>
       </c>
-      <c r="BA14" s="18">
+      <c r="BA14" s="17">
         <f t="shared" si="4"/>
         <v>88</v>
       </c>
-      <c r="BB14" s="17">
+      <c r="BB14" s="4">
         <v>154</v>
       </c>
-      <c r="BC14" s="17">
+      <c r="BC14" s="4">
         <v>170</v>
       </c>
-      <c r="BD14" s="46">
+      <c r="BD14" s="35">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A15" s="42">
+    <row r="15" spans="1:56">
+      <c r="A15" s="31">
         <v>13</v>
       </c>
       <c r="B15" s="3">
@@ -3872,7 +3870,7 @@
         <v>16</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O15" s="6">
         <v>29</v>
@@ -3890,7 +3888,7 @@
         <v>29</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U15" s="4">
         <v>17</v>
@@ -3908,7 +3906,7 @@
         <v>20</v>
       </c>
       <c r="Z15" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA15" s="4">
         <v>29</v>
@@ -3926,94 +3924,94 @@
         <v>29</v>
       </c>
       <c r="AF15" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG15" s="43">
+        <v>195</v>
+      </c>
+      <c r="AG15" s="32">
         <f t="shared" si="5"/>
         <v>93</v>
       </c>
-      <c r="AH15" s="43">
+      <c r="AH15" s="32">
         <f t="shared" si="6"/>
         <v>91</v>
       </c>
-      <c r="AI15" s="43">
+      <c r="AI15" s="32">
         <f t="shared" si="7"/>
         <v>96</v>
       </c>
-      <c r="AJ15" s="43">
+      <c r="AJ15" s="32">
         <f t="shared" si="8"/>
         <v>92</v>
       </c>
-      <c r="AK15" s="43">
+      <c r="AK15" s="32">
         <f t="shared" si="9"/>
         <v>94</v>
       </c>
-      <c r="AL15" s="43"/>
-      <c r="AM15" s="44">
+      <c r="AL15" s="32"/>
+      <c r="AM15" s="33">
+        <f t="shared" si="20"/>
+        <v>93</v>
+      </c>
+      <c r="AN15" s="33">
+        <f t="shared" si="21"/>
+        <v>91</v>
+      </c>
+      <c r="AO15" s="33">
+        <f t="shared" si="22"/>
+        <v>96</v>
+      </c>
+      <c r="AP15" s="33">
+        <f t="shared" si="23"/>
+        <v>92</v>
+      </c>
+      <c r="AQ15" s="33">
+        <f t="shared" si="24"/>
+        <v>94</v>
+      </c>
+      <c r="AR15" s="33"/>
+      <c r="AS15" s="33" t="str">
         <f t="shared" si="10"/>
-        <v>116</v>
-      </c>
-      <c r="AN15" s="44">
+        <v>A1</v>
+      </c>
+      <c r="AT15" s="33" t="str">
         <f t="shared" si="11"/>
-        <v>114</v>
-      </c>
-      <c r="AO15" s="44">
+        <v>A1</v>
+      </c>
+      <c r="AU15" s="33" t="str">
         <f t="shared" si="12"/>
-        <v>120</v>
-      </c>
-      <c r="AP15" s="44">
+        <v>A1</v>
+      </c>
+      <c r="AV15" s="33" t="str">
         <f t="shared" si="13"/>
-        <v>115</v>
-      </c>
-      <c r="AQ15" s="44">
+        <v>A1</v>
+      </c>
+      <c r="AW15" s="33" t="str">
         <f t="shared" si="14"/>
-        <v>118</v>
-      </c>
-      <c r="AR15" s="44"/>
-      <c r="AS15" s="44" t="str">
-        <f t="shared" si="15"/>
         <v>A1</v>
       </c>
-      <c r="AT15" s="44" t="str">
-        <f t="shared" si="16"/>
-        <v>A1</v>
-      </c>
-      <c r="AU15" s="44" t="str">
-        <f t="shared" si="17"/>
-        <v>A1</v>
-      </c>
-      <c r="AV15" s="44" t="str">
-        <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
-      <c r="AW15" s="44" t="str">
-        <f t="shared" si="19"/>
-        <v>A1</v>
-      </c>
-      <c r="AX15" s="44"/>
-      <c r="AY15" s="17">
+      <c r="AX15" s="33"/>
+      <c r="AY15" s="4">
         <v>500</v>
       </c>
-      <c r="AZ15" s="45">
+      <c r="AZ15" s="34">
         <f t="shared" si="3"/>
         <v>466</v>
       </c>
-      <c r="BA15" s="18">
+      <c r="BA15" s="17">
         <f t="shared" si="4"/>
         <v>93</v>
       </c>
-      <c r="BB15" s="17">
+      <c r="BB15" s="4">
         <v>130</v>
       </c>
-      <c r="BC15" s="17">
+      <c r="BC15" s="4">
         <v>170</v>
       </c>
-      <c r="BD15" s="46">
+      <c r="BD15" s="35">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A16" s="42">
+    <row r="16" spans="1:56">
+      <c r="A16" s="31">
         <v>14</v>
       </c>
       <c r="B16" s="3">
@@ -4053,7 +4051,7 @@
         <v>17</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O16" s="6">
         <v>28</v>
@@ -4071,7 +4069,7 @@
         <v>28</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U16" s="4">
         <v>16</v>
@@ -4089,7 +4087,7 @@
         <v>20</v>
       </c>
       <c r="Z16" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA16" s="4">
         <v>24</v>
@@ -4107,94 +4105,94 @@
         <v>24</v>
       </c>
       <c r="AF16" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG16" s="43">
+        <v>195</v>
+      </c>
+      <c r="AG16" s="32">
         <f t="shared" si="5"/>
         <v>86</v>
       </c>
-      <c r="AH16" s="43">
+      <c r="AH16" s="32">
         <f t="shared" si="6"/>
         <v>81</v>
       </c>
-      <c r="AI16" s="43">
+      <c r="AI16" s="32">
         <f t="shared" si="7"/>
         <v>90</v>
       </c>
-      <c r="AJ16" s="43">
+      <c r="AJ16" s="32">
         <f t="shared" si="8"/>
         <v>85</v>
       </c>
-      <c r="AK16" s="43">
+      <c r="AK16" s="32">
         <f t="shared" si="9"/>
         <v>89</v>
       </c>
-      <c r="AL16" s="43"/>
-      <c r="AM16" s="44">
+      <c r="AL16" s="32"/>
+      <c r="AM16" s="33">
+        <f t="shared" si="20"/>
+        <v>86</v>
+      </c>
+      <c r="AN16" s="33">
+        <f t="shared" si="21"/>
+        <v>81</v>
+      </c>
+      <c r="AO16" s="33">
+        <f t="shared" si="22"/>
+        <v>90</v>
+      </c>
+      <c r="AP16" s="33">
+        <f t="shared" si="23"/>
+        <v>85</v>
+      </c>
+      <c r="AQ16" s="33">
+        <f t="shared" si="24"/>
+        <v>89</v>
+      </c>
+      <c r="AR16" s="33"/>
+      <c r="AS16" s="33" t="str">
         <f t="shared" si="10"/>
-        <v>108</v>
-      </c>
-      <c r="AN16" s="44">
+        <v>A2</v>
+      </c>
+      <c r="AT16" s="33" t="str">
         <f t="shared" si="11"/>
-        <v>101</v>
-      </c>
-      <c r="AO16" s="44">
+        <v>A2</v>
+      </c>
+      <c r="AU16" s="33" t="str">
         <f t="shared" si="12"/>
-        <v>113</v>
-      </c>
-      <c r="AP16" s="44">
+        <v>A2</v>
+      </c>
+      <c r="AV16" s="33" t="str">
         <f t="shared" si="13"/>
-        <v>106</v>
-      </c>
-      <c r="AQ16" s="44">
+        <v>A2</v>
+      </c>
+      <c r="AW16" s="33" t="str">
         <f t="shared" si="14"/>
-        <v>111</v>
-      </c>
-      <c r="AR16" s="44"/>
-      <c r="AS16" s="44" t="str">
-        <f t="shared" si="15"/>
-        <v>A1</v>
-      </c>
-      <c r="AT16" s="44" t="str">
-        <f t="shared" si="16"/>
-        <v>A1</v>
-      </c>
-      <c r="AU16" s="44" t="str">
-        <f t="shared" si="17"/>
-        <v>A1</v>
-      </c>
-      <c r="AV16" s="44" t="str">
-        <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
-      <c r="AW16" s="44" t="str">
-        <f t="shared" si="19"/>
-        <v>A1</v>
-      </c>
-      <c r="AX16" s="44"/>
-      <c r="AY16" s="17">
+        <v>A2</v>
+      </c>
+      <c r="AX16" s="33"/>
+      <c r="AY16" s="4">
         <v>500</v>
       </c>
-      <c r="AZ16" s="45">
+      <c r="AZ16" s="34">
         <f t="shared" si="3"/>
         <v>431</v>
       </c>
-      <c r="BA16" s="18">
+      <c r="BA16" s="17">
         <f t="shared" si="4"/>
         <v>86</v>
       </c>
-      <c r="BB16" s="17">
+      <c r="BB16" s="4">
         <v>133</v>
       </c>
-      <c r="BC16" s="17">
+      <c r="BC16" s="4">
         <v>170</v>
       </c>
-      <c r="BD16" s="46">
+      <c r="BD16" s="35">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A17" s="42">
+    <row r="17" spans="1:56">
+      <c r="A17" s="31">
         <v>15</v>
       </c>
       <c r="B17" s="3">
@@ -4216,7 +4214,7 @@
         <v>124</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>125</v>
+        <v>198</v>
       </c>
       <c r="I17" s="4">
         <v>19</v>
@@ -4234,7 +4232,7 @@
         <v>20</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O17" s="6">
         <v>29</v>
@@ -4252,7 +4250,7 @@
         <v>29</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U17" s="4">
         <v>20</v>
@@ -4270,7 +4268,7 @@
         <v>20</v>
       </c>
       <c r="Z17" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA17" s="4">
         <v>30</v>
@@ -4288,94 +4286,94 @@
         <v>30</v>
       </c>
       <c r="AF17" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG17" s="43">
+        <v>195</v>
+      </c>
+      <c r="AG17" s="32">
         <f t="shared" si="5"/>
         <v>98</v>
       </c>
-      <c r="AH17" s="43">
+      <c r="AH17" s="32">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="AI17" s="43">
+      <c r="AI17" s="32">
         <f t="shared" si="7"/>
         <v>99</v>
       </c>
-      <c r="AJ17" s="43">
+      <c r="AJ17" s="32">
         <f t="shared" si="8"/>
         <v>99</v>
       </c>
-      <c r="AK17" s="43">
+      <c r="AK17" s="32">
         <f t="shared" si="9"/>
         <v>99</v>
       </c>
-      <c r="AL17" s="43"/>
-      <c r="AM17" s="44">
+      <c r="AL17" s="32"/>
+      <c r="AM17" s="33">
+        <f t="shared" si="20"/>
+        <v>98</v>
+      </c>
+      <c r="AN17" s="33">
+        <f t="shared" si="21"/>
+        <v>100</v>
+      </c>
+      <c r="AO17" s="33">
+        <f t="shared" si="22"/>
+        <v>99</v>
+      </c>
+      <c r="AP17" s="33">
+        <f t="shared" si="23"/>
+        <v>99</v>
+      </c>
+      <c r="AQ17" s="33">
+        <f t="shared" si="24"/>
+        <v>99</v>
+      </c>
+      <c r="AR17" s="33"/>
+      <c r="AS17" s="33" t="str">
         <f t="shared" si="10"/>
-        <v>123</v>
-      </c>
-      <c r="AN17" s="44">
+        <v>A1</v>
+      </c>
+      <c r="AT17" s="33" t="str">
         <f t="shared" si="11"/>
-        <v>125</v>
-      </c>
-      <c r="AO17" s="44">
+        <v>A1</v>
+      </c>
+      <c r="AU17" s="33" t="str">
         <f t="shared" si="12"/>
-        <v>124</v>
-      </c>
-      <c r="AP17" s="44">
+        <v>A1</v>
+      </c>
+      <c r="AV17" s="33" t="str">
         <f t="shared" si="13"/>
-        <v>124</v>
-      </c>
-      <c r="AQ17" s="44">
+        <v>A1</v>
+      </c>
+      <c r="AW17" s="33" t="str">
         <f t="shared" si="14"/>
-        <v>124</v>
-      </c>
-      <c r="AR17" s="44"/>
-      <c r="AS17" s="44" t="str">
-        <f t="shared" si="15"/>
         <v>A1</v>
       </c>
-      <c r="AT17" s="44" t="str">
-        <f t="shared" si="16"/>
-        <v>A1</v>
-      </c>
-      <c r="AU17" s="44" t="str">
-        <f t="shared" si="17"/>
-        <v>A1</v>
-      </c>
-      <c r="AV17" s="44" t="str">
-        <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
-      <c r="AW17" s="44" t="str">
-        <f t="shared" si="19"/>
-        <v>A1</v>
-      </c>
-      <c r="AX17" s="44"/>
-      <c r="AY17" s="17">
+      <c r="AX17" s="33"/>
+      <c r="AY17" s="4">
         <v>500</v>
       </c>
-      <c r="AZ17" s="45">
+      <c r="AZ17" s="34">
         <f t="shared" si="3"/>
         <v>495</v>
       </c>
-      <c r="BA17" s="18">
+      <c r="BA17" s="17">
         <f t="shared" si="4"/>
         <v>99</v>
       </c>
-      <c r="BB17" s="17">
+      <c r="BB17" s="4">
         <v>128</v>
       </c>
-      <c r="BC17" s="17">
+      <c r="BC17" s="4">
         <v>170</v>
       </c>
-      <c r="BD17" s="46">
+      <c r="BD17" s="35">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A18" s="42">
+    <row r="18" spans="1:56">
+      <c r="A18" s="31">
         <v>16</v>
       </c>
       <c r="B18" s="3">
@@ -4391,13 +4389,13 @@
         <v>82</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="I18" s="4">
         <v>13</v>
@@ -4415,7 +4413,7 @@
         <v>15</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O18" s="6">
         <v>27</v>
@@ -4433,7 +4431,7 @@
         <v>26</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U18" s="4">
         <v>15</v>
@@ -4451,7 +4449,7 @@
         <v>15</v>
       </c>
       <c r="Z18" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA18" s="4">
         <v>24</v>
@@ -4469,94 +4467,94 @@
         <v>27</v>
       </c>
       <c r="AF18" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG18" s="43">
+        <v>195</v>
+      </c>
+      <c r="AG18" s="32">
         <f t="shared" si="5"/>
         <v>79</v>
       </c>
-      <c r="AH18" s="43">
+      <c r="AH18" s="32">
         <f t="shared" si="6"/>
         <v>72</v>
       </c>
-      <c r="AI18" s="43">
+      <c r="AI18" s="32">
         <f t="shared" si="7"/>
         <v>81</v>
       </c>
-      <c r="AJ18" s="43">
+      <c r="AJ18" s="32">
         <f t="shared" si="8"/>
         <v>78</v>
       </c>
-      <c r="AK18" s="43">
+      <c r="AK18" s="32">
         <f t="shared" si="9"/>
         <v>83</v>
       </c>
-      <c r="AL18" s="43"/>
-      <c r="AM18" s="44">
+      <c r="AL18" s="32"/>
+      <c r="AM18" s="33">
+        <f t="shared" si="20"/>
+        <v>79</v>
+      </c>
+      <c r="AN18" s="33">
+        <f t="shared" si="21"/>
+        <v>72</v>
+      </c>
+      <c r="AO18" s="33">
+        <f t="shared" si="22"/>
+        <v>81</v>
+      </c>
+      <c r="AP18" s="33">
+        <f t="shared" si="23"/>
+        <v>78</v>
+      </c>
+      <c r="AQ18" s="33">
+        <f t="shared" si="24"/>
+        <v>83</v>
+      </c>
+      <c r="AR18" s="33"/>
+      <c r="AS18" s="33" t="str">
         <f t="shared" si="10"/>
-        <v>99</v>
-      </c>
-      <c r="AN18" s="44">
+        <v>B1</v>
+      </c>
+      <c r="AT18" s="33" t="str">
         <f t="shared" si="11"/>
-        <v>90</v>
-      </c>
-      <c r="AO18" s="44">
+        <v>B1</v>
+      </c>
+      <c r="AU18" s="33" t="str">
         <f t="shared" si="12"/>
-        <v>101</v>
-      </c>
-      <c r="AP18" s="44">
+        <v>A2</v>
+      </c>
+      <c r="AV18" s="33" t="str">
         <f t="shared" si="13"/>
-        <v>98</v>
-      </c>
-      <c r="AQ18" s="44">
+        <v>B1</v>
+      </c>
+      <c r="AW18" s="33" t="str">
         <f t="shared" si="14"/>
-        <v>104</v>
-      </c>
-      <c r="AR18" s="44"/>
-      <c r="AS18" s="44" t="str">
-        <f t="shared" si="15"/>
-        <v>A1</v>
-      </c>
-      <c r="AT18" s="44" t="str">
-        <f t="shared" si="16"/>
         <v>A2</v>
       </c>
-      <c r="AU18" s="44" t="str">
-        <f t="shared" si="17"/>
-        <v>A1</v>
-      </c>
-      <c r="AV18" s="44" t="str">
-        <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
-      <c r="AW18" s="44" t="str">
-        <f t="shared" si="19"/>
-        <v>A1</v>
-      </c>
-      <c r="AX18" s="44"/>
-      <c r="AY18" s="17">
+      <c r="AX18" s="33"/>
+      <c r="AY18" s="4">
         <v>500</v>
       </c>
-      <c r="AZ18" s="45">
+      <c r="AZ18" s="34">
         <f t="shared" si="3"/>
         <v>393</v>
       </c>
-      <c r="BA18" s="18">
+      <c r="BA18" s="17">
         <f t="shared" si="4"/>
         <v>79</v>
       </c>
-      <c r="BB18" s="17">
+      <c r="BB18" s="4">
         <v>118</v>
       </c>
-      <c r="BC18" s="17">
+      <c r="BC18" s="4">
         <v>170</v>
       </c>
-      <c r="BD18" s="46">
+      <c r="BD18" s="35">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A19" s="47">
+    <row r="19" spans="1:56">
+      <c r="A19" s="36">
         <v>17</v>
       </c>
       <c r="B19" s="7">
@@ -4572,13 +4570,13 @@
         <v>82</v>
       </c>
       <c r="F19" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="H19" s="8" t="s">
         <v>130</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>131</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>30</v>
@@ -4614,7 +4612,7 @@
         <v>19</v>
       </c>
       <c r="T19" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U19" s="9">
         <v>6</v>
@@ -4632,7 +4630,7 @@
         <v>10</v>
       </c>
       <c r="Z19" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA19" s="9">
         <v>14</v>
@@ -4650,94 +4648,94 @@
         <v>18</v>
       </c>
       <c r="AF19" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG19" s="48">
+        <v>195</v>
+      </c>
+      <c r="AG19" s="37">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="AH19" s="48">
+      <c r="AH19" s="37">
         <f t="shared" si="6"/>
         <v>37</v>
       </c>
-      <c r="AI19" s="48">
+      <c r="AI19" s="37">
         <f t="shared" si="7"/>
         <v>32</v>
       </c>
-      <c r="AJ19" s="48">
+      <c r="AJ19" s="37">
         <f t="shared" si="8"/>
         <v>33</v>
       </c>
-      <c r="AK19" s="48">
+      <c r="AK19" s="37">
         <f t="shared" si="9"/>
         <v>47</v>
       </c>
-      <c r="AL19" s="48"/>
-      <c r="AM19" s="49">
+      <c r="AL19" s="37"/>
+      <c r="AM19" s="38">
+        <f t="shared" si="15"/>
+        <v>38</v>
+      </c>
+      <c r="AN19" s="38">
+        <f t="shared" si="16"/>
+        <v>46</v>
+      </c>
+      <c r="AO19" s="38">
+        <f t="shared" si="17"/>
+        <v>40</v>
+      </c>
+      <c r="AP19" s="38">
+        <f t="shared" si="18"/>
+        <v>41</v>
+      </c>
+      <c r="AQ19" s="38">
+        <f t="shared" si="19"/>
+        <v>59</v>
+      </c>
+      <c r="AR19" s="38"/>
+      <c r="AS19" s="38" t="str">
         <f t="shared" si="10"/>
-        <v>38</v>
-      </c>
-      <c r="AN19" s="49">
+        <v>D</v>
+      </c>
+      <c r="AT19" s="38" t="str">
         <f t="shared" si="11"/>
-        <v>46</v>
-      </c>
-      <c r="AO19" s="49">
+        <v>C2</v>
+      </c>
+      <c r="AU19" s="38" t="str">
         <f t="shared" si="12"/>
-        <v>40</v>
-      </c>
-      <c r="AP19" s="49">
+        <v>D</v>
+      </c>
+      <c r="AV19" s="38" t="str">
         <f t="shared" si="13"/>
-        <v>41</v>
-      </c>
-      <c r="AQ19" s="49">
+        <v>C2</v>
+      </c>
+      <c r="AW19" s="38" t="str">
         <f t="shared" si="14"/>
-        <v>59</v>
-      </c>
-      <c r="AR19" s="49"/>
-      <c r="AS19" s="49" t="str">
-        <f t="shared" si="15"/>
-        <v>D</v>
-      </c>
-      <c r="AT19" s="49" t="str">
-        <f t="shared" si="16"/>
-        <v>C2</v>
-      </c>
-      <c r="AU19" s="49" t="str">
-        <f t="shared" si="17"/>
-        <v>D</v>
-      </c>
-      <c r="AV19" s="49" t="str">
-        <f t="shared" si="18"/>
-        <v>C2</v>
-      </c>
-      <c r="AW19" s="49" t="str">
-        <f t="shared" si="19"/>
         <v>C1</v>
       </c>
-      <c r="AX19" s="49"/>
-      <c r="AY19" s="19">
+      <c r="AX19" s="38"/>
+      <c r="AY19" s="18">
         <v>400</v>
       </c>
-      <c r="AZ19" s="50">
+      <c r="AZ19" s="39">
         <f t="shared" si="3"/>
         <v>179</v>
       </c>
-      <c r="BA19" s="20">
+      <c r="BA19" s="19">
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="BB19" s="19">
+      <c r="BB19" s="18">
         <v>147</v>
       </c>
-      <c r="BC19" s="19">
+      <c r="BC19" s="18">
         <v>170</v>
       </c>
-      <c r="BD19" s="51">
+      <c r="BD19" s="40">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A20" s="42">
+    <row r="20" spans="1:56">
+      <c r="A20" s="31">
         <v>18</v>
       </c>
       <c r="B20" s="3">
@@ -4753,13 +4751,13 @@
         <v>82</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="I20" s="4">
         <v>12</v>
@@ -4777,7 +4775,7 @@
         <v>13</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O20" s="6">
         <v>24</v>
@@ -4795,7 +4793,7 @@
         <v>23</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U20" s="4">
         <v>10</v>
@@ -4813,7 +4811,7 @@
         <v>15</v>
       </c>
       <c r="Z20" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA20" s="4">
         <v>14</v>
@@ -4831,94 +4829,94 @@
         <v>18</v>
       </c>
       <c r="AF20" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG20" s="43">
+        <v>195</v>
+      </c>
+      <c r="AG20" s="32">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="AH20" s="43">
+      <c r="AH20" s="32">
         <f t="shared" si="6"/>
         <v>65</v>
       </c>
-      <c r="AI20" s="43">
+      <c r="AI20" s="32">
         <f t="shared" si="7"/>
         <v>74</v>
       </c>
-      <c r="AJ20" s="43">
+      <c r="AJ20" s="32">
         <f t="shared" si="8"/>
         <v>60</v>
       </c>
-      <c r="AK20" s="43">
+      <c r="AK20" s="32">
         <f t="shared" si="9"/>
         <v>69</v>
       </c>
-      <c r="AL20" s="43"/>
-      <c r="AM20" s="44">
+      <c r="AL20" s="32"/>
+      <c r="AM20" s="33">
+        <f t="shared" ref="AM20:AM21" si="25">ROUND(AG20/100*100,0)</f>
+        <v>60</v>
+      </c>
+      <c r="AN20" s="33">
+        <f t="shared" ref="AN20:AN21" si="26">ROUND(AH20/100*100,0)</f>
+        <v>65</v>
+      </c>
+      <c r="AO20" s="33">
+        <f t="shared" ref="AO20:AO21" si="27">ROUND(AI20/100*100,0)</f>
+        <v>74</v>
+      </c>
+      <c r="AP20" s="33">
+        <f t="shared" ref="AP20:AP21" si="28">ROUND(AJ20/100*100,0)</f>
+        <v>60</v>
+      </c>
+      <c r="AQ20" s="33">
+        <f t="shared" ref="AQ20:AQ21" si="29">ROUND(AK20/100*100,0)</f>
+        <v>69</v>
+      </c>
+      <c r="AR20" s="33"/>
+      <c r="AS20" s="33" t="str">
         <f t="shared" si="10"/>
-        <v>75</v>
-      </c>
-      <c r="AN20" s="44">
+        <v>C1</v>
+      </c>
+      <c r="AT20" s="33" t="str">
         <f t="shared" si="11"/>
-        <v>81</v>
-      </c>
-      <c r="AO20" s="44">
+        <v>B2</v>
+      </c>
+      <c r="AU20" s="33" t="str">
         <f t="shared" si="12"/>
-        <v>93</v>
-      </c>
-      <c r="AP20" s="44">
+        <v>B1</v>
+      </c>
+      <c r="AV20" s="33" t="str">
         <f t="shared" si="13"/>
-        <v>75</v>
-      </c>
-      <c r="AQ20" s="44">
+        <v>C1</v>
+      </c>
+      <c r="AW20" s="33" t="str">
         <f t="shared" si="14"/>
-        <v>86</v>
-      </c>
-      <c r="AR20" s="44"/>
-      <c r="AS20" s="44" t="str">
-        <f t="shared" si="15"/>
-        <v>B1</v>
-      </c>
-      <c r="AT20" s="44" t="str">
-        <f t="shared" si="16"/>
-        <v>A2</v>
-      </c>
-      <c r="AU20" s="44" t="str">
-        <f t="shared" si="17"/>
-        <v>A1</v>
-      </c>
-      <c r="AV20" s="44" t="str">
-        <f t="shared" si="18"/>
-        <v>B1</v>
-      </c>
-      <c r="AW20" s="44" t="str">
-        <f t="shared" si="19"/>
-        <v>A2</v>
-      </c>
-      <c r="AX20" s="44"/>
-      <c r="AY20" s="17">
+        <v>B2</v>
+      </c>
+      <c r="AX20" s="33"/>
+      <c r="AY20" s="4">
         <v>500</v>
       </c>
-      <c r="AZ20" s="45">
+      <c r="AZ20" s="34">
         <f t="shared" si="3"/>
         <v>328</v>
       </c>
-      <c r="BA20" s="18">
+      <c r="BA20" s="17">
         <f t="shared" si="4"/>
         <v>66</v>
       </c>
-      <c r="BB20" s="17">
+      <c r="BB20" s="4">
         <v>149</v>
       </c>
-      <c r="BC20" s="17">
+      <c r="BC20" s="4">
         <v>170</v>
       </c>
-      <c r="BD20" s="46">
+      <c r="BD20" s="35">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A21" s="42">
+    <row r="21" spans="1:56">
+      <c r="A21" s="31">
         <v>19</v>
       </c>
       <c r="B21" s="3">
@@ -4934,13 +4932,13 @@
         <v>82</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="I21" s="4">
         <v>18</v>
@@ -4958,7 +4956,7 @@
         <v>17</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O21" s="6">
         <v>29</v>
@@ -4976,7 +4974,7 @@
         <v>26</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U21" s="4">
         <v>18</v>
@@ -4994,7 +4992,7 @@
         <v>20</v>
       </c>
       <c r="Z21" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA21" s="4">
         <v>27</v>
@@ -5012,94 +5010,94 @@
         <v>30</v>
       </c>
       <c r="AF21" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG21" s="43">
+        <v>195</v>
+      </c>
+      <c r="AG21" s="32">
         <f t="shared" si="5"/>
         <v>92</v>
       </c>
-      <c r="AH21" s="43">
+      <c r="AH21" s="32">
         <f t="shared" si="6"/>
         <v>83</v>
       </c>
-      <c r="AI21" s="43">
+      <c r="AI21" s="32">
         <f t="shared" si="7"/>
         <v>94</v>
       </c>
-      <c r="AJ21" s="43">
+      <c r="AJ21" s="32">
         <f t="shared" si="8"/>
         <v>86</v>
       </c>
-      <c r="AK21" s="43">
+      <c r="AK21" s="32">
         <f t="shared" si="9"/>
         <v>93</v>
       </c>
-      <c r="AL21" s="43"/>
-      <c r="AM21" s="44">
+      <c r="AL21" s="32"/>
+      <c r="AM21" s="33">
+        <f t="shared" si="25"/>
+        <v>92</v>
+      </c>
+      <c r="AN21" s="33">
+        <f t="shared" si="26"/>
+        <v>83</v>
+      </c>
+      <c r="AO21" s="33">
+        <f t="shared" si="27"/>
+        <v>94</v>
+      </c>
+      <c r="AP21" s="33">
+        <f t="shared" si="28"/>
+        <v>86</v>
+      </c>
+      <c r="AQ21" s="33">
+        <f t="shared" si="29"/>
+        <v>93</v>
+      </c>
+      <c r="AR21" s="33"/>
+      <c r="AS21" s="33" t="str">
         <f t="shared" si="10"/>
-        <v>115</v>
-      </c>
-      <c r="AN21" s="44">
+        <v>A1</v>
+      </c>
+      <c r="AT21" s="33" t="str">
         <f t="shared" si="11"/>
-        <v>104</v>
-      </c>
-      <c r="AO21" s="44">
+        <v>A2</v>
+      </c>
+      <c r="AU21" s="33" t="str">
         <f t="shared" si="12"/>
-        <v>118</v>
-      </c>
-      <c r="AP21" s="44">
+        <v>A1</v>
+      </c>
+      <c r="AV21" s="33" t="str">
         <f t="shared" si="13"/>
-        <v>108</v>
-      </c>
-      <c r="AQ21" s="44">
+        <v>A2</v>
+      </c>
+      <c r="AW21" s="33" t="str">
         <f t="shared" si="14"/>
-        <v>116</v>
-      </c>
-      <c r="AR21" s="44"/>
-      <c r="AS21" s="44" t="str">
-        <f t="shared" si="15"/>
         <v>A1</v>
       </c>
-      <c r="AT21" s="44" t="str">
-        <f t="shared" si="16"/>
-        <v>A1</v>
-      </c>
-      <c r="AU21" s="44" t="str">
-        <f t="shared" si="17"/>
-        <v>A1</v>
-      </c>
-      <c r="AV21" s="44" t="str">
-        <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
-      <c r="AW21" s="44" t="str">
-        <f t="shared" si="19"/>
-        <v>A1</v>
-      </c>
-      <c r="AX21" s="44"/>
-      <c r="AY21" s="17">
+      <c r="AX21" s="33"/>
+      <c r="AY21" s="4">
         <v>500</v>
       </c>
-      <c r="AZ21" s="45">
+      <c r="AZ21" s="34">
         <f t="shared" si="3"/>
         <v>448</v>
       </c>
-      <c r="BA21" s="18">
+      <c r="BA21" s="17">
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="BB21" s="17">
+      <c r="BB21" s="4">
         <v>119</v>
       </c>
-      <c r="BC21" s="17">
+      <c r="BC21" s="4">
         <v>170</v>
       </c>
-      <c r="BD21" s="46">
+      <c r="BD21" s="35">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A22" s="47">
+    <row r="22" spans="1:56">
+      <c r="A22" s="36">
         <v>20</v>
       </c>
       <c r="B22" s="7">
@@ -5109,19 +5107,19 @@
         <v>61</v>
       </c>
       <c r="D22" s="9">
-        <v>9999999999</v>
+        <v>9012482454</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>82</v>
       </c>
       <c r="F22" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="H22" s="8" t="s">
         <v>139</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>140</v>
       </c>
       <c r="I22" s="12" t="s">
         <v>30</v>
@@ -5157,7 +5155,7 @@
         <v>19</v>
       </c>
       <c r="T22" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U22" s="9">
         <v>6</v>
@@ -5175,7 +5173,7 @@
         <v>18</v>
       </c>
       <c r="Z22" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA22" s="9">
         <v>13</v>
@@ -5193,94 +5191,94 @@
         <v>24</v>
       </c>
       <c r="AF22" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG22" s="48">
+        <v>195</v>
+      </c>
+      <c r="AG22" s="37">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="AH22" s="48">
+      <c r="AH22" s="37">
         <f t="shared" si="6"/>
         <v>36</v>
       </c>
-      <c r="AI22" s="48">
+      <c r="AI22" s="37">
         <f t="shared" si="7"/>
         <v>43</v>
       </c>
-      <c r="AJ22" s="48">
+      <c r="AJ22" s="37">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="AK22" s="48">
+      <c r="AK22" s="37">
         <f t="shared" si="9"/>
         <v>61</v>
       </c>
-      <c r="AL22" s="48"/>
-      <c r="AM22" s="49">
+      <c r="AL22" s="37"/>
+      <c r="AM22" s="38">
+        <f t="shared" si="15"/>
+        <v>38</v>
+      </c>
+      <c r="AN22" s="38">
+        <f t="shared" si="16"/>
+        <v>45</v>
+      </c>
+      <c r="AO22" s="38">
+        <f t="shared" si="17"/>
+        <v>54</v>
+      </c>
+      <c r="AP22" s="38">
+        <f t="shared" si="18"/>
+        <v>38</v>
+      </c>
+      <c r="AQ22" s="38">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="AR22" s="38"/>
+      <c r="AS22" s="38" t="str">
         <f t="shared" si="10"/>
-        <v>38</v>
-      </c>
-      <c r="AN22" s="49">
+        <v>D</v>
+      </c>
+      <c r="AT22" s="38" t="str">
         <f t="shared" si="11"/>
-        <v>45</v>
-      </c>
-      <c r="AO22" s="49">
+        <v>C2</v>
+      </c>
+      <c r="AU22" s="38" t="str">
         <f t="shared" si="12"/>
-        <v>54</v>
-      </c>
-      <c r="AP22" s="49">
+        <v>C1</v>
+      </c>
+      <c r="AV22" s="38" t="str">
         <f t="shared" si="13"/>
-        <v>38</v>
-      </c>
-      <c r="AQ22" s="49">
+        <v>D</v>
+      </c>
+      <c r="AW22" s="38" t="str">
         <f t="shared" si="14"/>
-        <v>76</v>
-      </c>
-      <c r="AR22" s="49"/>
-      <c r="AS22" s="49" t="str">
-        <f t="shared" si="15"/>
-        <v>D</v>
-      </c>
-      <c r="AT22" s="49" t="str">
-        <f t="shared" si="16"/>
-        <v>C2</v>
-      </c>
-      <c r="AU22" s="49" t="str">
-        <f t="shared" si="17"/>
-        <v>C1</v>
-      </c>
-      <c r="AV22" s="49" t="str">
-        <f t="shared" si="18"/>
-        <v>D</v>
-      </c>
-      <c r="AW22" s="49" t="str">
-        <f t="shared" si="19"/>
         <v>B1</v>
       </c>
-      <c r="AX22" s="49"/>
-      <c r="AY22" s="19">
+      <c r="AX22" s="38"/>
+      <c r="AY22" s="18">
         <v>400</v>
       </c>
-      <c r="AZ22" s="50">
+      <c r="AZ22" s="39">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="BA22" s="20">
+      <c r="BA22" s="19">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="BB22" s="19">
+      <c r="BB22" s="18">
         <v>153</v>
       </c>
-      <c r="BC22" s="19">
+      <c r="BC22" s="18">
         <v>170</v>
       </c>
-      <c r="BD22" s="51">
+      <c r="BD22" s="40">
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A23" s="42">
+    <row r="23" spans="1:56">
+      <c r="A23" s="31">
         <v>21</v>
       </c>
       <c r="B23" s="3">
@@ -5296,10 +5294,10 @@
         <v>82</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>41</v>
@@ -5320,7 +5318,7 @@
         <v>14</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O23" s="6">
         <v>24</v>
@@ -5338,7 +5336,7 @@
         <v>22</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U23" s="4">
         <v>16</v>
@@ -5356,7 +5354,7 @@
         <v>19</v>
       </c>
       <c r="Z23" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA23" s="4">
         <v>21</v>
@@ -5374,94 +5372,94 @@
         <v>27</v>
       </c>
       <c r="AF23" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG23" s="43">
+        <v>195</v>
+      </c>
+      <c r="AG23" s="32">
         <f t="shared" si="5"/>
         <v>73</v>
       </c>
-      <c r="AH23" s="43">
+      <c r="AH23" s="32">
         <f t="shared" si="6"/>
         <v>81</v>
       </c>
-      <c r="AI23" s="43">
+      <c r="AI23" s="32">
         <f t="shared" si="7"/>
         <v>87</v>
       </c>
-      <c r="AJ23" s="43">
+      <c r="AJ23" s="32">
         <f t="shared" si="8"/>
         <v>76</v>
       </c>
-      <c r="AK23" s="43">
+      <c r="AK23" s="32">
         <f t="shared" si="9"/>
         <v>82</v>
       </c>
-      <c r="AL23" s="43"/>
-      <c r="AM23" s="44">
+      <c r="AL23" s="32"/>
+      <c r="AM23" s="33">
+        <f>ROUND(AG23/100*100,0)</f>
+        <v>73</v>
+      </c>
+      <c r="AN23" s="33">
+        <f>ROUND(AH23/100*100,0)</f>
+        <v>81</v>
+      </c>
+      <c r="AO23" s="33">
+        <f>ROUND(AI23/100*100,0)</f>
+        <v>87</v>
+      </c>
+      <c r="AP23" s="33">
+        <f>ROUND(AJ23/100*100,0)</f>
+        <v>76</v>
+      </c>
+      <c r="AQ23" s="33">
+        <f>ROUND(AK23/100*100,0)</f>
+        <v>82</v>
+      </c>
+      <c r="AR23" s="33"/>
+      <c r="AS23" s="33" t="str">
         <f t="shared" si="10"/>
-        <v>91</v>
-      </c>
-      <c r="AN23" s="44">
+        <v>B1</v>
+      </c>
+      <c r="AT23" s="33" t="str">
         <f t="shared" si="11"/>
-        <v>101</v>
-      </c>
-      <c r="AO23" s="44">
+        <v>A2</v>
+      </c>
+      <c r="AU23" s="33" t="str">
         <f t="shared" si="12"/>
-        <v>109</v>
-      </c>
-      <c r="AP23" s="44">
+        <v>A2</v>
+      </c>
+      <c r="AV23" s="33" t="str">
         <f t="shared" si="13"/>
-        <v>95</v>
-      </c>
-      <c r="AQ23" s="44">
+        <v>B1</v>
+      </c>
+      <c r="AW23" s="33" t="str">
         <f t="shared" si="14"/>
-        <v>103</v>
-      </c>
-      <c r="AR23" s="44"/>
-      <c r="AS23" s="44" t="str">
-        <f t="shared" si="15"/>
-        <v>A1</v>
-      </c>
-      <c r="AT23" s="44" t="str">
-        <f t="shared" si="16"/>
-        <v>A1</v>
-      </c>
-      <c r="AU23" s="44" t="str">
-        <f t="shared" si="17"/>
-        <v>A1</v>
-      </c>
-      <c r="AV23" s="44" t="str">
-        <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
-      <c r="AW23" s="44" t="str">
-        <f t="shared" si="19"/>
-        <v>A1</v>
-      </c>
-      <c r="AX23" s="44"/>
-      <c r="AY23" s="17">
+        <v>A2</v>
+      </c>
+      <c r="AX23" s="33"/>
+      <c r="AY23" s="4">
         <v>500</v>
       </c>
-      <c r="AZ23" s="45">
+      <c r="AZ23" s="34">
         <f t="shared" si="3"/>
         <v>399</v>
       </c>
-      <c r="BA23" s="18">
+      <c r="BA23" s="17">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="BB23" s="17">
+      <c r="BB23" s="4">
         <v>111</v>
       </c>
-      <c r="BC23" s="17">
+      <c r="BC23" s="4">
         <v>170</v>
       </c>
-      <c r="BD23" s="46">
+      <c r="BD23" s="35">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A24" s="47">
+    <row r="24" spans="1:56">
+      <c r="A24" s="36">
         <v>22</v>
       </c>
       <c r="B24" s="7">
@@ -5477,7 +5475,7 @@
         <v>82</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>33</v>
@@ -5519,7 +5517,7 @@
         <v>19</v>
       </c>
       <c r="T24" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U24" s="9">
         <v>10</v>
@@ -5537,7 +5535,7 @@
         <v>10</v>
       </c>
       <c r="Z24" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA24" s="9">
         <v>25</v>
@@ -5555,94 +5553,94 @@
         <v>24</v>
       </c>
       <c r="AF24" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG24" s="48">
+        <v>195</v>
+      </c>
+      <c r="AG24" s="37">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
-      <c r="AH24" s="48">
+      <c r="AH24" s="37">
         <f t="shared" si="6"/>
         <v>66</v>
       </c>
-      <c r="AI24" s="48">
+      <c r="AI24" s="37">
         <f t="shared" si="7"/>
         <v>61</v>
       </c>
-      <c r="AJ24" s="48">
+      <c r="AJ24" s="37">
         <f t="shared" si="8"/>
         <v>55</v>
       </c>
-      <c r="AK24" s="48">
+      <c r="AK24" s="37">
         <f t="shared" si="9"/>
         <v>53</v>
       </c>
-      <c r="AL24" s="48"/>
-      <c r="AM24" s="49">
+      <c r="AL24" s="37"/>
+      <c r="AM24" s="38">
+        <f t="shared" si="15"/>
+        <v>74</v>
+      </c>
+      <c r="AN24" s="38">
+        <f t="shared" si="16"/>
+        <v>83</v>
+      </c>
+      <c r="AO24" s="38">
+        <f t="shared" si="17"/>
+        <v>76</v>
+      </c>
+      <c r="AP24" s="38">
+        <f t="shared" si="18"/>
+        <v>69</v>
+      </c>
+      <c r="AQ24" s="38">
+        <f t="shared" si="19"/>
+        <v>66</v>
+      </c>
+      <c r="AR24" s="38"/>
+      <c r="AS24" s="38" t="str">
         <f t="shared" si="10"/>
-        <v>74</v>
-      </c>
-      <c r="AN24" s="49">
+        <v>B1</v>
+      </c>
+      <c r="AT24" s="38" t="str">
         <f t="shared" si="11"/>
-        <v>83</v>
-      </c>
-      <c r="AO24" s="49">
+        <v>A2</v>
+      </c>
+      <c r="AU24" s="38" t="str">
         <f t="shared" si="12"/>
-        <v>76</v>
-      </c>
-      <c r="AP24" s="49">
+        <v>B1</v>
+      </c>
+      <c r="AV24" s="38" t="str">
         <f t="shared" si="13"/>
-        <v>69</v>
-      </c>
-      <c r="AQ24" s="49">
+        <v>B2</v>
+      </c>
+      <c r="AW24" s="38" t="str">
         <f t="shared" si="14"/>
-        <v>66</v>
-      </c>
-      <c r="AR24" s="49"/>
-      <c r="AS24" s="49" t="str">
-        <f t="shared" si="15"/>
-        <v>B1</v>
-      </c>
-      <c r="AT24" s="49" t="str">
-        <f t="shared" si="16"/>
-        <v>A2</v>
-      </c>
-      <c r="AU24" s="49" t="str">
-        <f t="shared" si="17"/>
-        <v>B1</v>
-      </c>
-      <c r="AV24" s="49" t="str">
-        <f t="shared" si="18"/>
         <v>B2</v>
       </c>
-      <c r="AW24" s="49" t="str">
-        <f t="shared" si="19"/>
-        <v>B2</v>
-      </c>
-      <c r="AX24" s="49"/>
-      <c r="AY24" s="19">
+      <c r="AX24" s="38"/>
+      <c r="AY24" s="18">
         <v>400</v>
       </c>
-      <c r="AZ24" s="50">
+      <c r="AZ24" s="39">
         <f t="shared" si="3"/>
         <v>294</v>
       </c>
-      <c r="BA24" s="20">
+      <c r="BA24" s="19">
         <f t="shared" si="4"/>
         <v>74</v>
       </c>
-      <c r="BB24" s="19">
+      <c r="BB24" s="18">
         <v>114</v>
       </c>
-      <c r="BC24" s="19">
+      <c r="BC24" s="18">
         <v>170</v>
       </c>
-      <c r="BD24" s="51">
+      <c r="BD24" s="40">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A25" s="47">
+    <row r="25" spans="1:56">
+      <c r="A25" s="36">
         <v>23</v>
       </c>
       <c r="B25" s="7">
@@ -5658,7 +5656,7 @@
         <v>82</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>38</v>
@@ -5700,7 +5698,7 @@
         <v>15</v>
       </c>
       <c r="T25" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U25" s="9">
         <v>10</v>
@@ -5718,7 +5716,7 @@
         <v>15</v>
       </c>
       <c r="Z25" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA25" s="9">
         <v>19</v>
@@ -5736,94 +5734,94 @@
         <v>18</v>
       </c>
       <c r="AF25" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG25" s="48">
+        <v>195</v>
+      </c>
+      <c r="AG25" s="37">
         <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="AH25" s="48">
+      <c r="AH25" s="37">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="AI25" s="48">
+      <c r="AI25" s="37">
         <f t="shared" si="7"/>
         <v>44</v>
       </c>
-      <c r="AJ25" s="48">
+      <c r="AJ25" s="37">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
-      <c r="AK25" s="48">
+      <c r="AK25" s="37">
         <f t="shared" si="9"/>
         <v>48</v>
       </c>
-      <c r="AL25" s="48"/>
-      <c r="AM25" s="49">
+      <c r="AL25" s="37"/>
+      <c r="AM25" s="38">
+        <f t="shared" si="15"/>
+        <v>56</v>
+      </c>
+      <c r="AN25" s="38">
+        <f t="shared" si="16"/>
+        <v>63</v>
+      </c>
+      <c r="AO25" s="38">
+        <f t="shared" si="17"/>
+        <v>55</v>
+      </c>
+      <c r="AP25" s="38">
+        <f t="shared" si="18"/>
+        <v>56</v>
+      </c>
+      <c r="AQ25" s="38">
+        <f t="shared" si="19"/>
+        <v>60</v>
+      </c>
+      <c r="AR25" s="38"/>
+      <c r="AS25" s="38" t="str">
         <f t="shared" si="10"/>
-        <v>56</v>
-      </c>
-      <c r="AN25" s="49">
+        <v>C1</v>
+      </c>
+      <c r="AT25" s="38" t="str">
         <f t="shared" si="11"/>
-        <v>63</v>
-      </c>
-      <c r="AO25" s="49">
+        <v>B2</v>
+      </c>
+      <c r="AU25" s="38" t="str">
         <f t="shared" si="12"/>
-        <v>55</v>
-      </c>
-      <c r="AP25" s="49">
+        <v>C1</v>
+      </c>
+      <c r="AV25" s="38" t="str">
         <f t="shared" si="13"/>
-        <v>56</v>
-      </c>
-      <c r="AQ25" s="49">
+        <v>C1</v>
+      </c>
+      <c r="AW25" s="38" t="str">
         <f t="shared" si="14"/>
-        <v>60</v>
-      </c>
-      <c r="AR25" s="49"/>
-      <c r="AS25" s="49" t="str">
-        <f t="shared" si="15"/>
         <v>C1</v>
       </c>
-      <c r="AT25" s="49" t="str">
-        <f t="shared" si="16"/>
-        <v>B2</v>
-      </c>
-      <c r="AU25" s="49" t="str">
-        <f t="shared" si="17"/>
-        <v>C1</v>
-      </c>
-      <c r="AV25" s="49" t="str">
-        <f t="shared" si="18"/>
-        <v>C1</v>
-      </c>
-      <c r="AW25" s="49" t="str">
-        <f t="shared" si="19"/>
-        <v>C1</v>
-      </c>
-      <c r="AX25" s="49"/>
-      <c r="AY25" s="19">
+      <c r="AX25" s="38"/>
+      <c r="AY25" s="18">
         <v>400</v>
       </c>
-      <c r="AZ25" s="50">
+      <c r="AZ25" s="39">
         <f t="shared" si="3"/>
         <v>232</v>
       </c>
-      <c r="BA25" s="20">
+      <c r="BA25" s="19">
         <f t="shared" si="4"/>
         <v>58</v>
       </c>
-      <c r="BB25" s="19">
+      <c r="BB25" s="18">
         <v>122</v>
       </c>
-      <c r="BC25" s="19">
+      <c r="BC25" s="18">
         <v>170</v>
       </c>
-      <c r="BD25" s="51">
+      <c r="BD25" s="40">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A26" s="47">
+    <row r="26" spans="1:56">
+      <c r="A26" s="36">
         <v>24</v>
       </c>
       <c r="B26" s="7">
@@ -5839,13 +5837,13 @@
         <v>82</v>
       </c>
       <c r="F26" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G26" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="H26" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>147</v>
       </c>
       <c r="I26" s="12" t="s">
         <v>30</v>
@@ -5881,7 +5879,7 @@
         <v>19</v>
       </c>
       <c r="T26" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U26" s="9">
         <v>10</v>
@@ -5899,7 +5897,7 @@
         <v>18</v>
       </c>
       <c r="Z26" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA26" s="9">
         <v>28</v>
@@ -5917,94 +5915,94 @@
         <v>27</v>
       </c>
       <c r="AF26" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG26" s="48">
+        <v>195</v>
+      </c>
+      <c r="AG26" s="37">
         <f t="shared" si="5"/>
         <v>57</v>
       </c>
-      <c r="AH26" s="48">
+      <c r="AH26" s="37">
         <f t="shared" si="6"/>
         <v>55</v>
       </c>
-      <c r="AI26" s="48">
+      <c r="AI26" s="37">
         <f t="shared" si="7"/>
         <v>62</v>
       </c>
-      <c r="AJ26" s="48">
+      <c r="AJ26" s="37">
         <f t="shared" si="8"/>
         <v>59</v>
       </c>
-      <c r="AK26" s="48">
+      <c r="AK26" s="37">
         <f t="shared" si="9"/>
         <v>64</v>
       </c>
-      <c r="AL26" s="48"/>
-      <c r="AM26" s="49">
+      <c r="AL26" s="37"/>
+      <c r="AM26" s="38">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="AN26" s="38">
+        <f t="shared" si="16"/>
+        <v>69</v>
+      </c>
+      <c r="AO26" s="38">
+        <f t="shared" si="17"/>
+        <v>78</v>
+      </c>
+      <c r="AP26" s="38">
+        <f t="shared" si="18"/>
+        <v>74</v>
+      </c>
+      <c r="AQ26" s="38">
+        <f t="shared" si="19"/>
+        <v>80</v>
+      </c>
+      <c r="AR26" s="38"/>
+      <c r="AS26" s="38" t="str">
         <f t="shared" si="10"/>
-        <v>71</v>
-      </c>
-      <c r="AN26" s="49">
+        <v>B1</v>
+      </c>
+      <c r="AT26" s="38" t="str">
         <f t="shared" si="11"/>
-        <v>69</v>
-      </c>
-      <c r="AO26" s="49">
+        <v>B2</v>
+      </c>
+      <c r="AU26" s="38" t="str">
         <f t="shared" si="12"/>
-        <v>78</v>
-      </c>
-      <c r="AP26" s="49">
+        <v>B1</v>
+      </c>
+      <c r="AV26" s="38" t="str">
         <f t="shared" si="13"/>
-        <v>74</v>
-      </c>
-      <c r="AQ26" s="49">
+        <v>B1</v>
+      </c>
+      <c r="AW26" s="38" t="str">
         <f t="shared" si="14"/>
-        <v>80</v>
-      </c>
-      <c r="AR26" s="49"/>
-      <c r="AS26" s="49" t="str">
-        <f t="shared" si="15"/>
         <v>B1</v>
       </c>
-      <c r="AT26" s="49" t="str">
-        <f t="shared" si="16"/>
-        <v>B2</v>
-      </c>
-      <c r="AU26" s="49" t="str">
-        <f t="shared" si="17"/>
-        <v>B1</v>
-      </c>
-      <c r="AV26" s="49" t="str">
-        <f t="shared" si="18"/>
-        <v>B1</v>
-      </c>
-      <c r="AW26" s="49" t="str">
-        <f t="shared" si="19"/>
-        <v>B1</v>
-      </c>
-      <c r="AX26" s="49"/>
-      <c r="AY26" s="19">
+      <c r="AX26" s="38"/>
+      <c r="AY26" s="18">
         <v>400</v>
       </c>
-      <c r="AZ26" s="50">
+      <c r="AZ26" s="39">
         <f t="shared" si="3"/>
         <v>297</v>
       </c>
-      <c r="BA26" s="20">
+      <c r="BA26" s="19">
         <f t="shared" si="4"/>
         <v>74</v>
       </c>
-      <c r="BB26" s="19">
+      <c r="BB26" s="18">
         <v>140</v>
       </c>
-      <c r="BC26" s="19">
+      <c r="BC26" s="18">
         <v>170</v>
       </c>
-      <c r="BD26" s="51">
+      <c r="BD26" s="40">
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A27" s="42">
+    <row r="27" spans="1:56">
+      <c r="A27" s="31">
         <v>25</v>
       </c>
       <c r="B27" s="3">
@@ -6020,13 +6018,13 @@
         <v>82</v>
       </c>
       <c r="F27" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="I27" s="4">
         <v>12</v>
@@ -6044,7 +6042,7 @@
         <v>10</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O27" s="6">
         <v>24</v>
@@ -6062,7 +6060,7 @@
         <v>19</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U27" s="4">
         <v>14</v>
@@ -6080,7 +6078,7 @@
         <v>20</v>
       </c>
       <c r="Z27" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA27" s="4">
         <v>23</v>
@@ -6098,94 +6096,94 @@
         <v>27</v>
       </c>
       <c r="AF27" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG27" s="43">
+        <v>195</v>
+      </c>
+      <c r="AG27" s="32">
         <f t="shared" si="5"/>
         <v>73</v>
       </c>
-      <c r="AH27" s="43">
+      <c r="AH27" s="32">
         <f t="shared" si="6"/>
         <v>73</v>
       </c>
-      <c r="AI27" s="43">
+      <c r="AI27" s="32">
         <f t="shared" si="7"/>
         <v>75</v>
       </c>
-      <c r="AJ27" s="43">
+      <c r="AJ27" s="32">
         <f t="shared" si="8"/>
         <v>64</v>
       </c>
-      <c r="AK27" s="43">
+      <c r="AK27" s="32">
         <f t="shared" si="9"/>
         <v>76</v>
       </c>
-      <c r="AL27" s="43"/>
-      <c r="AM27" s="44">
+      <c r="AL27" s="32"/>
+      <c r="AM27" s="33">
+        <f t="shared" ref="AM27:AM28" si="30">ROUND(AG27/100*100,0)</f>
+        <v>73</v>
+      </c>
+      <c r="AN27" s="33">
+        <f t="shared" ref="AN27:AN28" si="31">ROUND(AH27/100*100,0)</f>
+        <v>73</v>
+      </c>
+      <c r="AO27" s="33">
+        <f t="shared" ref="AO27:AO28" si="32">ROUND(AI27/100*100,0)</f>
+        <v>75</v>
+      </c>
+      <c r="AP27" s="33">
+        <f t="shared" ref="AP27:AP28" si="33">ROUND(AJ27/100*100,0)</f>
+        <v>64</v>
+      </c>
+      <c r="AQ27" s="33">
+        <f t="shared" ref="AQ27:AQ28" si="34">ROUND(AK27/100*100,0)</f>
+        <v>76</v>
+      </c>
+      <c r="AR27" s="33"/>
+      <c r="AS27" s="33" t="str">
         <f t="shared" si="10"/>
-        <v>91</v>
-      </c>
-      <c r="AN27" s="44">
+        <v>B1</v>
+      </c>
+      <c r="AT27" s="33" t="str">
         <f t="shared" si="11"/>
-        <v>91</v>
-      </c>
-      <c r="AO27" s="44">
+        <v>B1</v>
+      </c>
+      <c r="AU27" s="33" t="str">
         <f t="shared" si="12"/>
-        <v>94</v>
-      </c>
-      <c r="AP27" s="44">
+        <v>B1</v>
+      </c>
+      <c r="AV27" s="33" t="str">
         <f t="shared" si="13"/>
-        <v>80</v>
-      </c>
-      <c r="AQ27" s="44">
+        <v>B2</v>
+      </c>
+      <c r="AW27" s="33" t="str">
         <f t="shared" si="14"/>
-        <v>95</v>
-      </c>
-      <c r="AR27" s="44"/>
-      <c r="AS27" s="44" t="str">
-        <f t="shared" si="15"/>
-        <v>A1</v>
-      </c>
-      <c r="AT27" s="44" t="str">
-        <f t="shared" si="16"/>
-        <v>A1</v>
-      </c>
-      <c r="AU27" s="44" t="str">
-        <f t="shared" si="17"/>
-        <v>A1</v>
-      </c>
-      <c r="AV27" s="44" t="str">
-        <f t="shared" si="18"/>
         <v>B1</v>
       </c>
-      <c r="AW27" s="44" t="str">
-        <f t="shared" si="19"/>
-        <v>A1</v>
-      </c>
-      <c r="AX27" s="44"/>
-      <c r="AY27" s="17">
+      <c r="AX27" s="33"/>
+      <c r="AY27" s="4">
         <v>500</v>
       </c>
-      <c r="AZ27" s="45">
+      <c r="AZ27" s="34">
         <f t="shared" si="3"/>
         <v>361</v>
       </c>
-      <c r="BA27" s="18">
+      <c r="BA27" s="17">
         <f t="shared" si="4"/>
         <v>72</v>
       </c>
-      <c r="BB27" s="17">
+      <c r="BB27" s="4">
         <v>132</v>
       </c>
-      <c r="BC27" s="17">
+      <c r="BC27" s="4">
         <v>170</v>
       </c>
-      <c r="BD27" s="46">
+      <c r="BD27" s="35">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A28" s="42">
+    <row r="28" spans="1:56">
+      <c r="A28" s="31">
         <v>26</v>
       </c>
       <c r="B28" s="3">
@@ -6201,13 +6199,13 @@
         <v>82</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="I28" s="4">
         <v>18</v>
@@ -6225,7 +6223,7 @@
         <v>17</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O28" s="6">
         <v>26</v>
@@ -6243,7 +6241,7 @@
         <v>26</v>
       </c>
       <c r="T28" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U28" s="4">
         <v>15</v>
@@ -6261,7 +6259,7 @@
         <v>15</v>
       </c>
       <c r="Z28" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA28" s="4">
         <v>18</v>
@@ -6279,94 +6277,94 @@
         <v>27</v>
       </c>
       <c r="AF28" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG28" s="43">
+        <v>195</v>
+      </c>
+      <c r="AG28" s="32">
         <f t="shared" si="5"/>
         <v>77</v>
       </c>
-      <c r="AH28" s="43">
+      <c r="AH28" s="32">
         <f t="shared" si="6"/>
         <v>85</v>
       </c>
-      <c r="AI28" s="43">
+      <c r="AI28" s="32">
         <f t="shared" si="7"/>
         <v>89</v>
       </c>
-      <c r="AJ28" s="43">
+      <c r="AJ28" s="32">
         <f t="shared" si="8"/>
         <v>77</v>
       </c>
-      <c r="AK28" s="43">
+      <c r="AK28" s="32">
         <f t="shared" si="9"/>
         <v>85</v>
       </c>
-      <c r="AL28" s="43"/>
-      <c r="AM28" s="44">
+      <c r="AL28" s="32"/>
+      <c r="AM28" s="33">
+        <f t="shared" si="30"/>
+        <v>77</v>
+      </c>
+      <c r="AN28" s="33">
+        <f t="shared" si="31"/>
+        <v>85</v>
+      </c>
+      <c r="AO28" s="33">
+        <f t="shared" si="32"/>
+        <v>89</v>
+      </c>
+      <c r="AP28" s="33">
+        <f t="shared" si="33"/>
+        <v>77</v>
+      </c>
+      <c r="AQ28" s="33">
+        <f t="shared" si="34"/>
+        <v>85</v>
+      </c>
+      <c r="AR28" s="33"/>
+      <c r="AS28" s="33" t="str">
         <f t="shared" si="10"/>
-        <v>96</v>
-      </c>
-      <c r="AN28" s="44">
+        <v>B1</v>
+      </c>
+      <c r="AT28" s="33" t="str">
         <f t="shared" si="11"/>
-        <v>106</v>
-      </c>
-      <c r="AO28" s="44">
+        <v>A2</v>
+      </c>
+      <c r="AU28" s="33" t="str">
         <f t="shared" si="12"/>
-        <v>111</v>
-      </c>
-      <c r="AP28" s="44">
+        <v>A2</v>
+      </c>
+      <c r="AV28" s="33" t="str">
         <f t="shared" si="13"/>
-        <v>96</v>
-      </c>
-      <c r="AQ28" s="44">
+        <v>B1</v>
+      </c>
+      <c r="AW28" s="33" t="str">
         <f t="shared" si="14"/>
-        <v>106</v>
-      </c>
-      <c r="AR28" s="44"/>
-      <c r="AS28" s="44" t="str">
-        <f t="shared" si="15"/>
-        <v>A1</v>
-      </c>
-      <c r="AT28" s="44" t="str">
-        <f t="shared" si="16"/>
-        <v>A1</v>
-      </c>
-      <c r="AU28" s="44" t="str">
-        <f t="shared" si="17"/>
-        <v>A1</v>
-      </c>
-      <c r="AV28" s="44" t="str">
-        <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
-      <c r="AW28" s="44" t="str">
-        <f t="shared" si="19"/>
-        <v>A1</v>
-      </c>
-      <c r="AX28" s="44"/>
-      <c r="AY28" s="17">
+        <v>A2</v>
+      </c>
+      <c r="AX28" s="33"/>
+      <c r="AY28" s="4">
         <v>500</v>
       </c>
-      <c r="AZ28" s="45">
+      <c r="AZ28" s="34">
         <f t="shared" si="3"/>
         <v>413</v>
       </c>
-      <c r="BA28" s="18">
+      <c r="BA28" s="17">
         <f t="shared" si="4"/>
         <v>83</v>
       </c>
-      <c r="BB28" s="17">
+      <c r="BB28" s="4">
         <v>87</v>
       </c>
-      <c r="BC28" s="17">
+      <c r="BC28" s="4">
         <v>170</v>
       </c>
-      <c r="BD28" s="46">
+      <c r="BD28" s="35">
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A29" s="47">
+    <row r="29" spans="1:56">
+      <c r="A29" s="36">
         <v>27</v>
       </c>
       <c r="B29" s="7">
@@ -6382,13 +6380,13 @@
         <v>82</v>
       </c>
       <c r="F29" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="H29" s="8" t="s">
         <v>155</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>156</v>
       </c>
       <c r="I29" s="12" t="s">
         <v>30</v>
@@ -6424,7 +6422,7 @@
         <v>28</v>
       </c>
       <c r="T29" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U29" s="9">
         <v>20</v>
@@ -6442,7 +6440,7 @@
         <v>19</v>
       </c>
       <c r="Z29" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA29" s="9">
         <v>29</v>
@@ -6460,94 +6458,94 @@
         <v>29</v>
       </c>
       <c r="AF29" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG29" s="48">
+        <v>195</v>
+      </c>
+      <c r="AG29" s="37">
         <f t="shared" si="5"/>
         <v>78</v>
       </c>
-      <c r="AH29" s="48">
+      <c r="AH29" s="37">
         <f t="shared" si="6"/>
         <v>76</v>
       </c>
-      <c r="AI29" s="48">
+      <c r="AI29" s="37">
         <f t="shared" si="7"/>
         <v>77</v>
       </c>
-      <c r="AJ29" s="48">
+      <c r="AJ29" s="37">
         <f t="shared" si="8"/>
         <v>74</v>
       </c>
-      <c r="AK29" s="48">
+      <c r="AK29" s="37">
         <f t="shared" si="9"/>
         <v>76</v>
       </c>
-      <c r="AL29" s="48"/>
-      <c r="AM29" s="49">
+      <c r="AL29" s="37"/>
+      <c r="AM29" s="38">
+        <f t="shared" si="15"/>
+        <v>98</v>
+      </c>
+      <c r="AN29" s="38">
+        <f t="shared" si="16"/>
+        <v>95</v>
+      </c>
+      <c r="AO29" s="38">
+        <f t="shared" si="17"/>
+        <v>96</v>
+      </c>
+      <c r="AP29" s="38">
+        <f t="shared" si="18"/>
+        <v>93</v>
+      </c>
+      <c r="AQ29" s="38">
+        <f t="shared" si="19"/>
+        <v>95</v>
+      </c>
+      <c r="AR29" s="38"/>
+      <c r="AS29" s="38" t="str">
         <f t="shared" si="10"/>
-        <v>98</v>
-      </c>
-      <c r="AN29" s="49">
+        <v>A1</v>
+      </c>
+      <c r="AT29" s="38" t="str">
         <f t="shared" si="11"/>
-        <v>95</v>
-      </c>
-      <c r="AO29" s="49">
+        <v>A1</v>
+      </c>
+      <c r="AU29" s="38" t="str">
         <f t="shared" si="12"/>
-        <v>96</v>
-      </c>
-      <c r="AP29" s="49">
+        <v>A1</v>
+      </c>
+      <c r="AV29" s="38" t="str">
         <f t="shared" si="13"/>
-        <v>93</v>
-      </c>
-      <c r="AQ29" s="49">
+        <v>A1</v>
+      </c>
+      <c r="AW29" s="38" t="str">
         <f t="shared" si="14"/>
-        <v>95</v>
-      </c>
-      <c r="AR29" s="49"/>
-      <c r="AS29" s="49" t="str">
-        <f t="shared" si="15"/>
         <v>A1</v>
       </c>
-      <c r="AT29" s="49" t="str">
-        <f t="shared" si="16"/>
-        <v>A1</v>
-      </c>
-      <c r="AU29" s="49" t="str">
-        <f t="shared" si="17"/>
-        <v>A1</v>
-      </c>
-      <c r="AV29" s="49" t="str">
-        <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
-      <c r="AW29" s="49" t="str">
-        <f t="shared" si="19"/>
-        <v>A1</v>
-      </c>
-      <c r="AX29" s="49"/>
-      <c r="AY29" s="19">
+      <c r="AX29" s="38"/>
+      <c r="AY29" s="18">
         <v>400</v>
       </c>
-      <c r="AZ29" s="50">
+      <c r="AZ29" s="39">
         <f t="shared" si="3"/>
         <v>381</v>
       </c>
-      <c r="BA29" s="20">
+      <c r="BA29" s="19">
         <f t="shared" si="4"/>
         <v>95</v>
       </c>
-      <c r="BB29" s="19">
+      <c r="BB29" s="18">
         <v>118</v>
       </c>
-      <c r="BC29" s="19">
+      <c r="BC29" s="18">
         <v>170</v>
       </c>
-      <c r="BD29" s="51">
+      <c r="BD29" s="40">
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A30" s="47">
+    <row r="30" spans="1:56">
+      <c r="A30" s="36">
         <v>28</v>
       </c>
       <c r="B30" s="7">
@@ -6563,13 +6561,13 @@
         <v>82</v>
       </c>
       <c r="F30" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G30" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="H30" s="8" t="s">
         <v>158</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>159</v>
       </c>
       <c r="I30" s="12" t="s">
         <v>30</v>
@@ -6605,7 +6603,7 @@
         <v>26</v>
       </c>
       <c r="T30" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U30" s="9">
         <v>16</v>
@@ -6623,7 +6621,7 @@
         <v>15</v>
       </c>
       <c r="Z30" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA30" s="9">
         <v>17</v>
@@ -6641,94 +6639,94 @@
         <v>27</v>
       </c>
       <c r="AF30" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG30" s="48">
+        <v>195</v>
+      </c>
+      <c r="AG30" s="37">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
-      <c r="AH30" s="48">
+      <c r="AH30" s="37">
         <f t="shared" si="6"/>
         <v>63</v>
       </c>
-      <c r="AI30" s="48">
+      <c r="AI30" s="37">
         <f t="shared" si="7"/>
         <v>69</v>
       </c>
-      <c r="AJ30" s="48">
+      <c r="AJ30" s="37">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
-      <c r="AK30" s="48">
+      <c r="AK30" s="37">
         <f t="shared" si="9"/>
         <v>68</v>
       </c>
-      <c r="AL30" s="48"/>
-      <c r="AM30" s="49">
+      <c r="AL30" s="37"/>
+      <c r="AM30" s="38">
+        <f t="shared" si="15"/>
+        <v>76</v>
+      </c>
+      <c r="AN30" s="38">
+        <f t="shared" si="16"/>
+        <v>79</v>
+      </c>
+      <c r="AO30" s="38">
+        <f t="shared" si="17"/>
+        <v>86</v>
+      </c>
+      <c r="AP30" s="38">
+        <f t="shared" si="18"/>
+        <v>85</v>
+      </c>
+      <c r="AQ30" s="38">
+        <f t="shared" si="19"/>
+        <v>85</v>
+      </c>
+      <c r="AR30" s="38"/>
+      <c r="AS30" s="38" t="str">
         <f t="shared" si="10"/>
-        <v>76</v>
-      </c>
-      <c r="AN30" s="49">
+        <v>B1</v>
+      </c>
+      <c r="AT30" s="38" t="str">
         <f t="shared" si="11"/>
-        <v>79</v>
-      </c>
-      <c r="AO30" s="49">
+        <v>B1</v>
+      </c>
+      <c r="AU30" s="38" t="str">
         <f t="shared" si="12"/>
-        <v>86</v>
-      </c>
-      <c r="AP30" s="49">
+        <v>A2</v>
+      </c>
+      <c r="AV30" s="38" t="str">
         <f t="shared" si="13"/>
-        <v>85</v>
-      </c>
-      <c r="AQ30" s="49">
+        <v>A2</v>
+      </c>
+      <c r="AW30" s="38" t="str">
         <f t="shared" si="14"/>
-        <v>85</v>
-      </c>
-      <c r="AR30" s="49"/>
-      <c r="AS30" s="49" t="str">
-        <f t="shared" si="15"/>
-        <v>B1</v>
-      </c>
-      <c r="AT30" s="49" t="str">
-        <f t="shared" si="16"/>
-        <v>B1</v>
-      </c>
-      <c r="AU30" s="49" t="str">
-        <f t="shared" si="17"/>
         <v>A2</v>
       </c>
-      <c r="AV30" s="49" t="str">
-        <f t="shared" si="18"/>
-        <v>A2</v>
-      </c>
-      <c r="AW30" s="49" t="str">
-        <f t="shared" si="19"/>
-        <v>A2</v>
-      </c>
-      <c r="AX30" s="49"/>
-      <c r="AY30" s="19">
+      <c r="AX30" s="38"/>
+      <c r="AY30" s="18">
         <v>400</v>
       </c>
-      <c r="AZ30" s="50">
+      <c r="AZ30" s="39">
         <f t="shared" si="3"/>
         <v>329</v>
       </c>
-      <c r="BA30" s="20">
+      <c r="BA30" s="19">
         <f t="shared" si="4"/>
         <v>82</v>
       </c>
-      <c r="BB30" s="19">
+      <c r="BB30" s="18">
         <v>126</v>
       </c>
-      <c r="BC30" s="19">
+      <c r="BC30" s="18">
         <v>170</v>
       </c>
-      <c r="BD30" s="51">
+      <c r="BD30" s="40">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A31" s="42">
+    <row r="31" spans="1:56">
+      <c r="A31" s="31">
         <v>29</v>
       </c>
       <c r="B31" s="3">
@@ -6744,13 +6742,13 @@
         <v>82</v>
       </c>
       <c r="F31" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="I31" s="4">
         <v>10</v>
@@ -6768,7 +6766,7 @@
         <v>16</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O31" s="6">
         <v>22</v>
@@ -6786,7 +6784,7 @@
         <v>19</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U31" s="4">
         <v>14</v>
@@ -6804,7 +6802,7 @@
         <v>18</v>
       </c>
       <c r="Z31" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA31" s="4">
         <v>20</v>
@@ -6822,94 +6820,94 @@
         <v>27</v>
       </c>
       <c r="AF31" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG31" s="43">
+        <v>195</v>
+      </c>
+      <c r="AG31" s="32">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
-      <c r="AH31" s="43">
+      <c r="AH31" s="32">
         <f t="shared" si="6"/>
         <v>65</v>
       </c>
-      <c r="AI31" s="43">
+      <c r="AI31" s="32">
         <f t="shared" si="7"/>
         <v>71</v>
       </c>
-      <c r="AJ31" s="43">
+      <c r="AJ31" s="32">
         <f t="shared" si="8"/>
         <v>56</v>
       </c>
-      <c r="AK31" s="43">
+      <c r="AK31" s="32">
         <f t="shared" si="9"/>
         <v>80</v>
       </c>
-      <c r="AL31" s="43"/>
-      <c r="AM31" s="44">
+      <c r="AL31" s="32"/>
+      <c r="AM31" s="33">
+        <f t="shared" ref="AM31:AM34" si="35">ROUND(AG31/100*100,0)</f>
+        <v>66</v>
+      </c>
+      <c r="AN31" s="33">
+        <f t="shared" ref="AN31:AN34" si="36">ROUND(AH31/100*100,0)</f>
+        <v>65</v>
+      </c>
+      <c r="AO31" s="33">
+        <f t="shared" ref="AO31:AO34" si="37">ROUND(AI31/100*100,0)</f>
+        <v>71</v>
+      </c>
+      <c r="AP31" s="33">
+        <f t="shared" ref="AP31:AP34" si="38">ROUND(AJ31/100*100,0)</f>
+        <v>56</v>
+      </c>
+      <c r="AQ31" s="33">
+        <f t="shared" ref="AQ31:AQ34" si="39">ROUND(AK31/100*100,0)</f>
+        <v>80</v>
+      </c>
+      <c r="AR31" s="33"/>
+      <c r="AS31" s="33" t="str">
         <f t="shared" si="10"/>
-        <v>83</v>
-      </c>
-      <c r="AN31" s="44">
+        <v>B2</v>
+      </c>
+      <c r="AT31" s="33" t="str">
         <f t="shared" si="11"/>
-        <v>81</v>
-      </c>
-      <c r="AO31" s="44">
+        <v>B2</v>
+      </c>
+      <c r="AU31" s="33" t="str">
         <f t="shared" si="12"/>
-        <v>89</v>
-      </c>
-      <c r="AP31" s="44">
+        <v>B1</v>
+      </c>
+      <c r="AV31" s="33" t="str">
         <f t="shared" si="13"/>
-        <v>70</v>
-      </c>
-      <c r="AQ31" s="44">
+        <v>C1</v>
+      </c>
+      <c r="AW31" s="33" t="str">
         <f t="shared" si="14"/>
-        <v>100</v>
-      </c>
-      <c r="AR31" s="44"/>
-      <c r="AS31" s="44" t="str">
-        <f t="shared" si="15"/>
-        <v>A2</v>
-      </c>
-      <c r="AT31" s="44" t="str">
-        <f t="shared" si="16"/>
-        <v>A2</v>
-      </c>
-      <c r="AU31" s="44" t="str">
-        <f t="shared" si="17"/>
-        <v>A2</v>
-      </c>
-      <c r="AV31" s="44" t="str">
-        <f t="shared" si="18"/>
-        <v>B2</v>
-      </c>
-      <c r="AW31" s="44" t="str">
-        <f t="shared" si="19"/>
-        <v>A1</v>
-      </c>
-      <c r="AX31" s="44"/>
-      <c r="AY31" s="17">
+        <v>B1</v>
+      </c>
+      <c r="AX31" s="33"/>
+      <c r="AY31" s="4">
         <v>500</v>
       </c>
-      <c r="AZ31" s="45">
+      <c r="AZ31" s="34">
         <f t="shared" si="3"/>
         <v>338</v>
       </c>
-      <c r="BA31" s="18">
+      <c r="BA31" s="17">
         <f t="shared" si="4"/>
         <v>68</v>
       </c>
-      <c r="BB31" s="17">
+      <c r="BB31" s="4">
         <v>152</v>
       </c>
-      <c r="BC31" s="17">
+      <c r="BC31" s="4">
         <v>170</v>
       </c>
-      <c r="BD31" s="46">
+      <c r="BD31" s="35">
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A32" s="42">
+    <row r="32" spans="1:56">
+      <c r="A32" s="31">
         <v>30</v>
       </c>
       <c r="B32" s="3">
@@ -6925,13 +6923,13 @@
         <v>82</v>
       </c>
       <c r="F32" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="I32" s="4">
         <v>18</v>
@@ -6949,7 +6947,7 @@
         <v>15</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O32" s="6">
         <v>29</v>
@@ -6967,7 +6965,7 @@
         <v>26</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U32" s="4">
         <v>17</v>
@@ -6985,7 +6983,7 @@
         <v>18</v>
       </c>
       <c r="Z32" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA32" s="4">
         <v>24</v>
@@ -7003,94 +7001,94 @@
         <v>27</v>
       </c>
       <c r="AF32" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG32" s="43">
+        <v>195</v>
+      </c>
+      <c r="AG32" s="32">
         <f t="shared" si="5"/>
         <v>88</v>
       </c>
-      <c r="AH32" s="43">
+      <c r="AH32" s="32">
         <f t="shared" si="6"/>
         <v>83</v>
       </c>
-      <c r="AI32" s="43">
+      <c r="AI32" s="32">
         <f t="shared" si="7"/>
         <v>90</v>
       </c>
-      <c r="AJ32" s="43">
+      <c r="AJ32" s="32">
         <f t="shared" si="8"/>
         <v>74</v>
       </c>
-      <c r="AK32" s="43">
+      <c r="AK32" s="32">
         <f t="shared" si="9"/>
         <v>86</v>
       </c>
-      <c r="AL32" s="43"/>
-      <c r="AM32" s="44">
+      <c r="AL32" s="32"/>
+      <c r="AM32" s="33">
+        <f t="shared" si="35"/>
+        <v>88</v>
+      </c>
+      <c r="AN32" s="33">
+        <f t="shared" si="36"/>
+        <v>83</v>
+      </c>
+      <c r="AO32" s="33">
+        <f t="shared" si="37"/>
+        <v>90</v>
+      </c>
+      <c r="AP32" s="33">
+        <f t="shared" si="38"/>
+        <v>74</v>
+      </c>
+      <c r="AQ32" s="33">
+        <f t="shared" si="39"/>
+        <v>86</v>
+      </c>
+      <c r="AR32" s="33"/>
+      <c r="AS32" s="33" t="str">
         <f t="shared" si="10"/>
-        <v>110</v>
-      </c>
-      <c r="AN32" s="44">
+        <v>A2</v>
+      </c>
+      <c r="AT32" s="33" t="str">
         <f t="shared" si="11"/>
-        <v>104</v>
-      </c>
-      <c r="AO32" s="44">
+        <v>A2</v>
+      </c>
+      <c r="AU32" s="33" t="str">
         <f t="shared" si="12"/>
-        <v>113</v>
-      </c>
-      <c r="AP32" s="44">
+        <v>A2</v>
+      </c>
+      <c r="AV32" s="33" t="str">
         <f t="shared" si="13"/>
-        <v>93</v>
-      </c>
-      <c r="AQ32" s="44">
+        <v>B1</v>
+      </c>
+      <c r="AW32" s="33" t="str">
         <f t="shared" si="14"/>
-        <v>108</v>
-      </c>
-      <c r="AR32" s="44"/>
-      <c r="AS32" s="44" t="str">
-        <f t="shared" si="15"/>
-        <v>A1</v>
-      </c>
-      <c r="AT32" s="44" t="str">
-        <f t="shared" si="16"/>
-        <v>A1</v>
-      </c>
-      <c r="AU32" s="44" t="str">
-        <f t="shared" si="17"/>
-        <v>A1</v>
-      </c>
-      <c r="AV32" s="44" t="str">
-        <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
-      <c r="AW32" s="44" t="str">
-        <f t="shared" si="19"/>
-        <v>A1</v>
-      </c>
-      <c r="AX32" s="44"/>
-      <c r="AY32" s="17">
+        <v>A2</v>
+      </c>
+      <c r="AX32" s="33"/>
+      <c r="AY32" s="4">
         <v>500</v>
       </c>
-      <c r="AZ32" s="45">
+      <c r="AZ32" s="34">
         <f t="shared" si="3"/>
         <v>421</v>
       </c>
-      <c r="BA32" s="18">
+      <c r="BA32" s="17">
         <f t="shared" si="4"/>
         <v>84</v>
       </c>
-      <c r="BB32" s="17">
+      <c r="BB32" s="4">
         <v>135</v>
       </c>
-      <c r="BC32" s="17">
+      <c r="BC32" s="4">
         <v>170</v>
       </c>
-      <c r="BD32" s="46">
+      <c r="BD32" s="35">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A33" s="42">
+    <row r="33" spans="1:56">
+      <c r="A33" s="31">
         <v>31</v>
       </c>
       <c r="B33" s="3">
@@ -7106,13 +7104,13 @@
         <v>82</v>
       </c>
       <c r="F33" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="I33" s="4">
         <v>14</v>
@@ -7130,7 +7128,7 @@
         <v>16</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O33" s="6">
         <v>27</v>
@@ -7148,7 +7146,7 @@
         <v>26</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U33" s="4">
         <v>16</v>
@@ -7166,7 +7164,7 @@
         <v>18</v>
       </c>
       <c r="Z33" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA33" s="4">
         <v>20</v>
@@ -7184,94 +7182,94 @@
         <v>27</v>
       </c>
       <c r="AF33" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG33" s="43">
+        <v>195</v>
+      </c>
+      <c r="AG33" s="32">
         <f t="shared" si="5"/>
         <v>77</v>
       </c>
-      <c r="AH33" s="43">
+      <c r="AH33" s="32">
         <f t="shared" si="6"/>
         <v>82</v>
       </c>
-      <c r="AI33" s="43">
+      <c r="AI33" s="32">
         <f t="shared" si="7"/>
         <v>85</v>
       </c>
-      <c r="AJ33" s="43">
+      <c r="AJ33" s="32">
         <f t="shared" si="8"/>
         <v>81</v>
       </c>
-      <c r="AK33" s="43">
+      <c r="AK33" s="32">
         <f t="shared" si="9"/>
         <v>87</v>
       </c>
-      <c r="AL33" s="43"/>
-      <c r="AM33" s="44">
+      <c r="AL33" s="32"/>
+      <c r="AM33" s="33">
+        <f t="shared" si="35"/>
+        <v>77</v>
+      </c>
+      <c r="AN33" s="33">
+        <f t="shared" si="36"/>
+        <v>82</v>
+      </c>
+      <c r="AO33" s="33">
+        <f t="shared" si="37"/>
+        <v>85</v>
+      </c>
+      <c r="AP33" s="33">
+        <f t="shared" si="38"/>
+        <v>81</v>
+      </c>
+      <c r="AQ33" s="33">
+        <f t="shared" si="39"/>
+        <v>87</v>
+      </c>
+      <c r="AR33" s="33"/>
+      <c r="AS33" s="33" t="str">
         <f t="shared" si="10"/>
-        <v>96</v>
-      </c>
-      <c r="AN33" s="44">
+        <v>B1</v>
+      </c>
+      <c r="AT33" s="33" t="str">
         <f t="shared" si="11"/>
-        <v>103</v>
-      </c>
-      <c r="AO33" s="44">
+        <v>A2</v>
+      </c>
+      <c r="AU33" s="33" t="str">
         <f t="shared" si="12"/>
-        <v>106</v>
-      </c>
-      <c r="AP33" s="44">
+        <v>A2</v>
+      </c>
+      <c r="AV33" s="33" t="str">
         <f t="shared" si="13"/>
-        <v>101</v>
-      </c>
-      <c r="AQ33" s="44">
+        <v>A2</v>
+      </c>
+      <c r="AW33" s="33" t="str">
         <f t="shared" si="14"/>
-        <v>109</v>
-      </c>
-      <c r="AR33" s="44"/>
-      <c r="AS33" s="44" t="str">
-        <f t="shared" si="15"/>
-        <v>A1</v>
-      </c>
-      <c r="AT33" s="44" t="str">
-        <f t="shared" si="16"/>
-        <v>A1</v>
-      </c>
-      <c r="AU33" s="44" t="str">
-        <f t="shared" si="17"/>
-        <v>A1</v>
-      </c>
-      <c r="AV33" s="44" t="str">
-        <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
-      <c r="AW33" s="44" t="str">
-        <f t="shared" si="19"/>
-        <v>A1</v>
-      </c>
-      <c r="AX33" s="44"/>
-      <c r="AY33" s="17">
+        <v>A2</v>
+      </c>
+      <c r="AX33" s="33"/>
+      <c r="AY33" s="4">
         <v>500</v>
       </c>
-      <c r="AZ33" s="45">
+      <c r="AZ33" s="34">
         <f t="shared" si="3"/>
         <v>412</v>
       </c>
-      <c r="BA33" s="18">
+      <c r="BA33" s="17">
         <f t="shared" si="4"/>
         <v>82</v>
       </c>
-      <c r="BB33" s="17">
+      <c r="BB33" s="4">
         <v>157</v>
       </c>
-      <c r="BC33" s="17">
+      <c r="BC33" s="4">
         <v>170</v>
       </c>
-      <c r="BD33" s="46">
+      <c r="BD33" s="35">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A34" s="42">
+    <row r="34" spans="1:56">
+      <c r="A34" s="31">
         <v>32</v>
       </c>
       <c r="B34" s="3">
@@ -7287,13 +7285,13 @@
         <v>82</v>
       </c>
       <c r="F34" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="I34" s="4">
         <v>12</v>
@@ -7311,7 +7309,7 @@
         <v>14</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O34" s="6">
         <v>24</v>
@@ -7329,7 +7327,7 @@
         <v>23</v>
       </c>
       <c r="T34" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U34" s="4">
         <v>15</v>
@@ -7347,7 +7345,7 @@
         <v>15</v>
       </c>
       <c r="Z34" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA34" s="4">
         <v>22</v>
@@ -7365,94 +7363,94 @@
         <v>24</v>
       </c>
       <c r="AF34" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG34" s="43">
+        <v>195</v>
+      </c>
+      <c r="AG34" s="32">
         <f t="shared" si="5"/>
         <v>73</v>
       </c>
-      <c r="AH34" s="43">
+      <c r="AH34" s="32">
         <f t="shared" si="6"/>
         <v>77</v>
       </c>
-      <c r="AI34" s="43">
+      <c r="AI34" s="32">
         <f t="shared" si="7"/>
         <v>76</v>
       </c>
-      <c r="AJ34" s="43">
+      <c r="AJ34" s="32">
         <f t="shared" si="8"/>
         <v>60</v>
       </c>
-      <c r="AK34" s="43">
+      <c r="AK34" s="32">
         <f t="shared" si="9"/>
         <v>76</v>
       </c>
-      <c r="AL34" s="43"/>
-      <c r="AM34" s="44">
+      <c r="AL34" s="32"/>
+      <c r="AM34" s="33">
+        <f t="shared" si="35"/>
+        <v>73</v>
+      </c>
+      <c r="AN34" s="33">
+        <f t="shared" si="36"/>
+        <v>77</v>
+      </c>
+      <c r="AO34" s="33">
+        <f t="shared" si="37"/>
+        <v>76</v>
+      </c>
+      <c r="AP34" s="33">
+        <f t="shared" si="38"/>
+        <v>60</v>
+      </c>
+      <c r="AQ34" s="33">
+        <f t="shared" si="39"/>
+        <v>76</v>
+      </c>
+      <c r="AR34" s="33"/>
+      <c r="AS34" s="33" t="str">
         <f t="shared" si="10"/>
-        <v>91</v>
-      </c>
-      <c r="AN34" s="44">
+        <v>B1</v>
+      </c>
+      <c r="AT34" s="33" t="str">
         <f t="shared" si="11"/>
-        <v>96</v>
-      </c>
-      <c r="AO34" s="44">
+        <v>B1</v>
+      </c>
+      <c r="AU34" s="33" t="str">
         <f t="shared" si="12"/>
-        <v>95</v>
-      </c>
-      <c r="AP34" s="44">
+        <v>B1</v>
+      </c>
+      <c r="AV34" s="33" t="str">
         <f t="shared" si="13"/>
-        <v>75</v>
-      </c>
-      <c r="AQ34" s="44">
+        <v>C1</v>
+      </c>
+      <c r="AW34" s="33" t="str">
         <f t="shared" si="14"/>
-        <v>95</v>
-      </c>
-      <c r="AR34" s="44"/>
-      <c r="AS34" s="44" t="str">
-        <f t="shared" si="15"/>
-        <v>A1</v>
-      </c>
-      <c r="AT34" s="44" t="str">
-        <f t="shared" si="16"/>
-        <v>A1</v>
-      </c>
-      <c r="AU34" s="44" t="str">
-        <f t="shared" si="17"/>
-        <v>A1</v>
-      </c>
-      <c r="AV34" s="44" t="str">
-        <f t="shared" si="18"/>
         <v>B1</v>
       </c>
-      <c r="AW34" s="44" t="str">
-        <f t="shared" si="19"/>
-        <v>A1</v>
-      </c>
-      <c r="AX34" s="44"/>
-      <c r="AY34" s="17">
+      <c r="AX34" s="33"/>
+      <c r="AY34" s="4">
         <v>500</v>
       </c>
-      <c r="AZ34" s="45">
+      <c r="AZ34" s="34">
         <f t="shared" si="3"/>
         <v>362</v>
       </c>
-      <c r="BA34" s="18">
+      <c r="BA34" s="17">
         <f t="shared" si="4"/>
         <v>72</v>
       </c>
-      <c r="BB34" s="17">
+      <c r="BB34" s="4">
         <v>110</v>
       </c>
-      <c r="BC34" s="17">
+      <c r="BC34" s="4">
         <v>170</v>
       </c>
-      <c r="BD34" s="46">
+      <c r="BD34" s="35">
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A35" s="47">
+    <row r="35" spans="1:56">
+      <c r="A35" s="36">
         <v>33</v>
       </c>
       <c r="B35" s="7">
@@ -7468,10 +7466,10 @@
         <v>82</v>
       </c>
       <c r="F35" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G35" s="8" t="s">
         <v>172</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>173</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>101</v>
@@ -7510,7 +7508,7 @@
         <v>15</v>
       </c>
       <c r="T35" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U35" s="9">
         <v>8</v>
@@ -7528,7 +7526,7 @@
         <v>10</v>
       </c>
       <c r="Z35" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA35" s="9">
         <v>16</v>
@@ -7546,94 +7544,94 @@
         <v>18</v>
       </c>
       <c r="AF35" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG35" s="48">
+        <v>195</v>
+      </c>
+      <c r="AG35" s="37">
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="AH35" s="48">
+      <c r="AH35" s="37">
         <f t="shared" si="6"/>
         <v>38</v>
       </c>
-      <c r="AI35" s="48">
+      <c r="AI35" s="37">
         <f t="shared" si="7"/>
         <v>44</v>
       </c>
-      <c r="AJ35" s="48">
+      <c r="AJ35" s="37">
         <f t="shared" si="8"/>
         <v>31</v>
       </c>
-      <c r="AK35" s="48">
+      <c r="AK35" s="37">
         <f t="shared" si="9"/>
         <v>43</v>
       </c>
-      <c r="AL35" s="48"/>
-      <c r="AM35" s="49">
+      <c r="AL35" s="37"/>
+      <c r="AM35" s="38">
+        <f t="shared" si="15"/>
+        <v>44</v>
+      </c>
+      <c r="AN35" s="38">
+        <f t="shared" si="16"/>
+        <v>48</v>
+      </c>
+      <c r="AO35" s="38">
+        <f t="shared" si="17"/>
+        <v>55</v>
+      </c>
+      <c r="AP35" s="38">
+        <f t="shared" si="18"/>
+        <v>39</v>
+      </c>
+      <c r="AQ35" s="38">
+        <f t="shared" si="19"/>
+        <v>54</v>
+      </c>
+      <c r="AR35" s="38"/>
+      <c r="AS35" s="38" t="str">
         <f t="shared" si="10"/>
-        <v>44</v>
-      </c>
-      <c r="AN35" s="49">
+        <v>C2</v>
+      </c>
+      <c r="AT35" s="38" t="str">
         <f t="shared" si="11"/>
-        <v>48</v>
-      </c>
-      <c r="AO35" s="49">
+        <v>C2</v>
+      </c>
+      <c r="AU35" s="38" t="str">
         <f t="shared" si="12"/>
-        <v>55</v>
-      </c>
-      <c r="AP35" s="49">
+        <v>C1</v>
+      </c>
+      <c r="AV35" s="38" t="str">
         <f t="shared" si="13"/>
-        <v>39</v>
-      </c>
-      <c r="AQ35" s="49">
+        <v>D</v>
+      </c>
+      <c r="AW35" s="38" t="str">
         <f t="shared" si="14"/>
-        <v>54</v>
-      </c>
-      <c r="AR35" s="49"/>
-      <c r="AS35" s="49" t="str">
-        <f t="shared" si="15"/>
-        <v>C2</v>
-      </c>
-      <c r="AT35" s="49" t="str">
-        <f t="shared" si="16"/>
-        <v>C2</v>
-      </c>
-      <c r="AU35" s="49" t="str">
-        <f t="shared" si="17"/>
         <v>C1</v>
       </c>
-      <c r="AV35" s="49" t="str">
-        <f t="shared" si="18"/>
-        <v>D</v>
-      </c>
-      <c r="AW35" s="49" t="str">
-        <f t="shared" si="19"/>
-        <v>C1</v>
-      </c>
-      <c r="AX35" s="49"/>
-      <c r="AY35" s="19">
+      <c r="AX35" s="38"/>
+      <c r="AY35" s="18">
         <v>400</v>
       </c>
-      <c r="AZ35" s="50">
+      <c r="AZ35" s="39">
         <f t="shared" si="3"/>
         <v>191</v>
       </c>
-      <c r="BA35" s="20">
+      <c r="BA35" s="19">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="BB35" s="19">
+      <c r="BB35" s="18">
         <v>142</v>
       </c>
-      <c r="BC35" s="19">
+      <c r="BC35" s="18">
         <v>170</v>
       </c>
-      <c r="BD35" s="51">
+      <c r="BD35" s="40">
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A36" s="42">
+    <row r="36" spans="1:56">
+      <c r="A36" s="31">
         <v>34</v>
       </c>
       <c r="B36" s="3">
@@ -7649,13 +7647,13 @@
         <v>82</v>
       </c>
       <c r="F36" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="I36" s="4">
         <v>19</v>
@@ -7673,7 +7671,7 @@
         <v>18</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O36" s="6">
         <v>29</v>
@@ -7691,7 +7689,7 @@
         <v>29</v>
       </c>
       <c r="T36" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U36" s="4">
         <v>20</v>
@@ -7709,7 +7707,7 @@
         <v>20</v>
       </c>
       <c r="Z36" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA36" s="4">
         <v>30</v>
@@ -7727,94 +7725,94 @@
         <v>30</v>
       </c>
       <c r="AF36" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG36" s="43">
+        <v>195</v>
+      </c>
+      <c r="AG36" s="32">
         <f t="shared" si="5"/>
         <v>98</v>
       </c>
-      <c r="AH36" s="43">
+      <c r="AH36" s="32">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="AI36" s="43">
+      <c r="AI36" s="32">
         <f t="shared" si="7"/>
         <v>97</v>
       </c>
-      <c r="AJ36" s="43">
+      <c r="AJ36" s="32">
         <f t="shared" si="8"/>
         <v>99</v>
       </c>
-      <c r="AK36" s="43">
+      <c r="AK36" s="32">
         <f t="shared" si="9"/>
         <v>97</v>
       </c>
-      <c r="AL36" s="43"/>
-      <c r="AM36" s="44">
+      <c r="AL36" s="32"/>
+      <c r="AM36" s="33">
+        <f t="shared" ref="AM36:AM42" si="40">ROUND(AG36/100*100,0)</f>
+        <v>98</v>
+      </c>
+      <c r="AN36" s="33">
+        <f t="shared" ref="AN36:AN42" si="41">ROUND(AH36/100*100,0)</f>
+        <v>100</v>
+      </c>
+      <c r="AO36" s="33">
+        <f t="shared" ref="AO36:AO41" si="42">ROUND(AI36/100*100,0)</f>
+        <v>97</v>
+      </c>
+      <c r="AP36" s="33">
+        <f t="shared" ref="AP36:AP42" si="43">ROUND(AJ36/100*100,0)</f>
+        <v>99</v>
+      </c>
+      <c r="AQ36" s="33">
+        <f t="shared" ref="AQ36:AQ42" si="44">ROUND(AK36/100*100,0)</f>
+        <v>97</v>
+      </c>
+      <c r="AR36" s="33"/>
+      <c r="AS36" s="33" t="str">
         <f t="shared" si="10"/>
-        <v>123</v>
-      </c>
-      <c r="AN36" s="44">
+        <v>A1</v>
+      </c>
+      <c r="AT36" s="33" t="str">
         <f t="shared" si="11"/>
-        <v>125</v>
-      </c>
-      <c r="AO36" s="44">
+        <v>A1</v>
+      </c>
+      <c r="AU36" s="33" t="str">
         <f t="shared" si="12"/>
-        <v>121</v>
-      </c>
-      <c r="AP36" s="44">
+        <v>A1</v>
+      </c>
+      <c r="AV36" s="33" t="str">
         <f t="shared" si="13"/>
-        <v>124</v>
-      </c>
-      <c r="AQ36" s="44">
+        <v>A1</v>
+      </c>
+      <c r="AW36" s="33" t="str">
         <f t="shared" si="14"/>
-        <v>121</v>
-      </c>
-      <c r="AR36" s="44"/>
-      <c r="AS36" s="44" t="str">
-        <f t="shared" si="15"/>
         <v>A1</v>
       </c>
-      <c r="AT36" s="44" t="str">
-        <f t="shared" si="16"/>
-        <v>A1</v>
-      </c>
-      <c r="AU36" s="44" t="str">
-        <f t="shared" si="17"/>
-        <v>A1</v>
-      </c>
-      <c r="AV36" s="44" t="str">
-        <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
-      <c r="AW36" s="44" t="str">
-        <f t="shared" si="19"/>
-        <v>A1</v>
-      </c>
-      <c r="AX36" s="44"/>
-      <c r="AY36" s="17">
+      <c r="AX36" s="33"/>
+      <c r="AY36" s="4">
         <v>500</v>
       </c>
-      <c r="AZ36" s="45">
+      <c r="AZ36" s="34">
         <f t="shared" si="3"/>
         <v>491</v>
       </c>
-      <c r="BA36" s="18">
+      <c r="BA36" s="17">
         <f t="shared" si="4"/>
         <v>98</v>
       </c>
-      <c r="BB36" s="17">
+      <c r="BB36" s="4">
         <v>150</v>
       </c>
-      <c r="BC36" s="17">
+      <c r="BC36" s="4">
         <v>170</v>
       </c>
-      <c r="BD36" s="46">
+      <c r="BD36" s="35">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A37" s="42">
+    <row r="37" spans="1:56">
+      <c r="A37" s="31">
         <v>35</v>
       </c>
       <c r="B37" s="3">
@@ -7830,13 +7828,13 @@
         <v>82</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="I37" s="4">
         <v>9</v>
@@ -7854,7 +7852,7 @@
         <v>12</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O37" s="6">
         <v>22</v>
@@ -7872,7 +7870,7 @@
         <v>15</v>
       </c>
       <c r="T37" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U37" s="4">
         <v>13</v>
@@ -7890,7 +7888,7 @@
         <v>15</v>
       </c>
       <c r="Z37" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA37" s="4">
         <v>16</v>
@@ -7908,94 +7906,94 @@
         <v>21</v>
       </c>
       <c r="AF37" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG37" s="43">
+        <v>195</v>
+      </c>
+      <c r="AG37" s="32">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="AH37" s="43">
+      <c r="AH37" s="32">
         <f t="shared" si="6"/>
         <v>67</v>
       </c>
-      <c r="AI37" s="43">
+      <c r="AI37" s="32">
         <f t="shared" si="7"/>
         <v>76</v>
       </c>
-      <c r="AJ37" s="43">
+      <c r="AJ37" s="32">
         <f t="shared" si="8"/>
         <v>65</v>
       </c>
-      <c r="AK37" s="43">
+      <c r="AK37" s="32">
         <f t="shared" si="9"/>
         <v>63</v>
       </c>
-      <c r="AL37" s="43"/>
-      <c r="AM37" s="44">
+      <c r="AL37" s="32"/>
+      <c r="AM37" s="33">
+        <f t="shared" si="40"/>
+        <v>60</v>
+      </c>
+      <c r="AN37" s="33">
+        <f t="shared" si="41"/>
+        <v>67</v>
+      </c>
+      <c r="AO37" s="33">
+        <f t="shared" si="42"/>
+        <v>76</v>
+      </c>
+      <c r="AP37" s="33">
+        <f t="shared" si="43"/>
+        <v>65</v>
+      </c>
+      <c r="AQ37" s="33">
+        <f t="shared" si="44"/>
+        <v>63</v>
+      </c>
+      <c r="AR37" s="33"/>
+      <c r="AS37" s="33" t="str">
         <f t="shared" si="10"/>
-        <v>75</v>
-      </c>
-      <c r="AN37" s="44">
+        <v>C1</v>
+      </c>
+      <c r="AT37" s="33" t="str">
         <f t="shared" si="11"/>
-        <v>84</v>
-      </c>
-      <c r="AO37" s="44">
+        <v>B2</v>
+      </c>
+      <c r="AU37" s="33" t="str">
         <f t="shared" si="12"/>
-        <v>95</v>
-      </c>
-      <c r="AP37" s="44">
+        <v>B1</v>
+      </c>
+      <c r="AV37" s="33" t="str">
         <f t="shared" si="13"/>
-        <v>81</v>
-      </c>
-      <c r="AQ37" s="44">
+        <v>B2</v>
+      </c>
+      <c r="AW37" s="33" t="str">
         <f t="shared" si="14"/>
-        <v>79</v>
-      </c>
-      <c r="AR37" s="44"/>
-      <c r="AS37" s="44" t="str">
-        <f t="shared" si="15"/>
-        <v>B1</v>
-      </c>
-      <c r="AT37" s="44" t="str">
-        <f t="shared" si="16"/>
-        <v>A2</v>
-      </c>
-      <c r="AU37" s="44" t="str">
-        <f t="shared" si="17"/>
-        <v>A1</v>
-      </c>
-      <c r="AV37" s="44" t="str">
-        <f t="shared" si="18"/>
-        <v>A2</v>
-      </c>
-      <c r="AW37" s="44" t="str">
-        <f t="shared" si="19"/>
-        <v>B1</v>
-      </c>
-      <c r="AX37" s="44"/>
-      <c r="AY37" s="17">
+        <v>B2</v>
+      </c>
+      <c r="AX37" s="33"/>
+      <c r="AY37" s="4">
         <v>500</v>
       </c>
-      <c r="AZ37" s="45">
+      <c r="AZ37" s="34">
         <f t="shared" si="3"/>
         <v>331</v>
       </c>
-      <c r="BA37" s="18">
+      <c r="BA37" s="17">
         <f t="shared" si="4"/>
         <v>66</v>
       </c>
-      <c r="BB37" s="17">
+      <c r="BB37" s="4">
         <v>158</v>
       </c>
-      <c r="BC37" s="17">
+      <c r="BC37" s="4">
         <v>170</v>
       </c>
-      <c r="BD37" s="46">
+      <c r="BD37" s="35">
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A38" s="42">
+    <row r="38" spans="1:56">
+      <c r="A38" s="31">
         <v>36</v>
       </c>
       <c r="B38" s="3">
@@ -8011,13 +8009,13 @@
         <v>82</v>
       </c>
       <c r="F38" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="I38" s="4">
         <v>18</v>
@@ -8035,7 +8033,7 @@
         <v>15</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O38" s="6">
         <v>29</v>
@@ -8053,7 +8051,7 @@
         <v>28</v>
       </c>
       <c r="T38" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U38" s="4">
         <v>20</v>
@@ -8071,7 +8069,7 @@
         <v>19</v>
       </c>
       <c r="Z38" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA38" s="4">
         <v>28</v>
@@ -8089,94 +8087,94 @@
         <v>30</v>
       </c>
       <c r="AF38" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG38" s="43">
+        <v>195</v>
+      </c>
+      <c r="AG38" s="32">
         <f t="shared" si="5"/>
         <v>95</v>
       </c>
-      <c r="AH38" s="43">
+      <c r="AH38" s="32">
         <f t="shared" si="6"/>
         <v>94</v>
       </c>
-      <c r="AI38" s="43">
+      <c r="AI38" s="32">
         <f t="shared" si="7"/>
         <v>92</v>
       </c>
-      <c r="AJ38" s="43">
+      <c r="AJ38" s="32">
         <f t="shared" si="8"/>
         <v>85</v>
       </c>
-      <c r="AK38" s="43">
+      <c r="AK38" s="32">
         <f t="shared" si="9"/>
         <v>92</v>
       </c>
-      <c r="AL38" s="43"/>
-      <c r="AM38" s="44">
+      <c r="AL38" s="32"/>
+      <c r="AM38" s="33">
+        <f t="shared" si="40"/>
+        <v>95</v>
+      </c>
+      <c r="AN38" s="33">
+        <f t="shared" si="41"/>
+        <v>94</v>
+      </c>
+      <c r="AO38" s="33">
+        <f t="shared" si="42"/>
+        <v>92</v>
+      </c>
+      <c r="AP38" s="33">
+        <f t="shared" si="43"/>
+        <v>85</v>
+      </c>
+      <c r="AQ38" s="33">
+        <f t="shared" si="44"/>
+        <v>92</v>
+      </c>
+      <c r="AR38" s="33"/>
+      <c r="AS38" s="33" t="str">
         <f t="shared" si="10"/>
-        <v>119</v>
-      </c>
-      <c r="AN38" s="44">
+        <v>A1</v>
+      </c>
+      <c r="AT38" s="33" t="str">
         <f t="shared" si="11"/>
-        <v>118</v>
-      </c>
-      <c r="AO38" s="44">
+        <v>A1</v>
+      </c>
+      <c r="AU38" s="33" t="str">
         <f t="shared" si="12"/>
-        <v>115</v>
-      </c>
-      <c r="AP38" s="44">
+        <v>A1</v>
+      </c>
+      <c r="AV38" s="33" t="str">
         <f t="shared" si="13"/>
-        <v>106</v>
-      </c>
-      <c r="AQ38" s="44">
+        <v>A2</v>
+      </c>
+      <c r="AW38" s="33" t="str">
         <f t="shared" si="14"/>
-        <v>115</v>
-      </c>
-      <c r="AR38" s="44"/>
-      <c r="AS38" s="44" t="str">
-        <f t="shared" si="15"/>
         <v>A1</v>
       </c>
-      <c r="AT38" s="44" t="str">
-        <f t="shared" si="16"/>
-        <v>A1</v>
-      </c>
-      <c r="AU38" s="44" t="str">
-        <f t="shared" si="17"/>
-        <v>A1</v>
-      </c>
-      <c r="AV38" s="44" t="str">
-        <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
-      <c r="AW38" s="44" t="str">
-        <f t="shared" si="19"/>
-        <v>A1</v>
-      </c>
-      <c r="AX38" s="44"/>
-      <c r="AY38" s="17">
+      <c r="AX38" s="33"/>
+      <c r="AY38" s="4">
         <v>500</v>
       </c>
-      <c r="AZ38" s="45">
+      <c r="AZ38" s="34">
         <f t="shared" si="3"/>
         <v>458</v>
       </c>
-      <c r="BA38" s="18">
+      <c r="BA38" s="17">
         <f t="shared" si="4"/>
         <v>92</v>
       </c>
-      <c r="BB38" s="17">
+      <c r="BB38" s="4">
         <v>159</v>
       </c>
-      <c r="BC38" s="17">
+      <c r="BC38" s="4">
         <v>170</v>
       </c>
-      <c r="BD38" s="46">
+      <c r="BD38" s="35">
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A39" s="42">
+    <row r="39" spans="1:56">
+      <c r="A39" s="31">
         <v>37</v>
       </c>
       <c r="B39" s="3">
@@ -8192,13 +8190,13 @@
         <v>82</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="I39" s="4">
         <v>19</v>
@@ -8216,7 +8214,7 @@
         <v>20</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O39" s="6">
         <v>29</v>
@@ -8234,7 +8232,7 @@
         <v>29</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U39" s="4">
         <v>19</v>
@@ -8252,7 +8250,7 @@
         <v>20</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA39" s="4">
         <v>28</v>
@@ -8270,94 +8268,94 @@
         <v>30</v>
       </c>
       <c r="AF39" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG39" s="43">
+        <v>195</v>
+      </c>
+      <c r="AG39" s="32">
         <f t="shared" si="5"/>
         <v>95</v>
       </c>
-      <c r="AH39" s="43">
+      <c r="AH39" s="32">
         <f t="shared" si="6"/>
         <v>99</v>
       </c>
-      <c r="AI39" s="43">
+      <c r="AI39" s="32">
         <f t="shared" si="7"/>
         <v>98</v>
       </c>
-      <c r="AJ39" s="43">
+      <c r="AJ39" s="32">
         <f t="shared" si="8"/>
         <v>99</v>
       </c>
-      <c r="AK39" s="43">
+      <c r="AK39" s="32">
         <f t="shared" si="9"/>
         <v>99</v>
       </c>
-      <c r="AL39" s="43"/>
-      <c r="AM39" s="44">
+      <c r="AL39" s="32"/>
+      <c r="AM39" s="33">
+        <f t="shared" si="40"/>
+        <v>95</v>
+      </c>
+      <c r="AN39" s="33">
+        <f t="shared" si="41"/>
+        <v>99</v>
+      </c>
+      <c r="AO39" s="33">
+        <f t="shared" si="42"/>
+        <v>98</v>
+      </c>
+      <c r="AP39" s="33">
+        <f t="shared" si="43"/>
+        <v>99</v>
+      </c>
+      <c r="AQ39" s="33">
+        <f t="shared" si="44"/>
+        <v>99</v>
+      </c>
+      <c r="AR39" s="33"/>
+      <c r="AS39" s="33" t="str">
         <f t="shared" si="10"/>
-        <v>119</v>
-      </c>
-      <c r="AN39" s="44">
+        <v>A1</v>
+      </c>
+      <c r="AT39" s="33" t="str">
         <f t="shared" si="11"/>
-        <v>124</v>
-      </c>
-      <c r="AO39" s="44">
+        <v>A1</v>
+      </c>
+      <c r="AU39" s="33" t="str">
         <f t="shared" si="12"/>
-        <v>123</v>
-      </c>
-      <c r="AP39" s="44">
+        <v>A1</v>
+      </c>
+      <c r="AV39" s="33" t="str">
         <f t="shared" si="13"/>
-        <v>124</v>
-      </c>
-      <c r="AQ39" s="44">
+        <v>A1</v>
+      </c>
+      <c r="AW39" s="33" t="str">
         <f t="shared" si="14"/>
-        <v>124</v>
-      </c>
-      <c r="AR39" s="44"/>
-      <c r="AS39" s="44" t="str">
-        <f t="shared" si="15"/>
         <v>A1</v>
       </c>
-      <c r="AT39" s="44" t="str">
-        <f t="shared" si="16"/>
-        <v>A1</v>
-      </c>
-      <c r="AU39" s="44" t="str">
-        <f t="shared" si="17"/>
-        <v>A1</v>
-      </c>
-      <c r="AV39" s="44" t="str">
-        <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
-      <c r="AW39" s="44" t="str">
-        <f t="shared" si="19"/>
-        <v>A1</v>
-      </c>
-      <c r="AX39" s="44"/>
-      <c r="AY39" s="17">
+      <c r="AX39" s="33"/>
+      <c r="AY39" s="4">
         <v>500</v>
       </c>
-      <c r="AZ39" s="45">
+      <c r="AZ39" s="34">
         <f t="shared" si="3"/>
         <v>490</v>
       </c>
-      <c r="BA39" s="18">
+      <c r="BA39" s="17">
         <f t="shared" si="4"/>
         <v>98</v>
       </c>
-      <c r="BB39" s="17">
+      <c r="BB39" s="4">
         <v>143</v>
       </c>
-      <c r="BC39" s="17">
+      <c r="BC39" s="4">
         <v>170</v>
       </c>
-      <c r="BD39" s="46">
+      <c r="BD39" s="35">
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A40" s="42">
+    <row r="40" spans="1:56">
+      <c r="A40" s="31">
         <v>38</v>
       </c>
       <c r="B40" s="3">
@@ -8373,7 +8371,7 @@
         <v>82</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>31</v>
@@ -8397,7 +8395,7 @@
         <v>16</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O40" s="6">
         <v>27</v>
@@ -8415,7 +8413,7 @@
         <v>26</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U40" s="4">
         <v>18</v>
@@ -8433,7 +8431,7 @@
         <v>20</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA40" s="4">
         <v>25</v>
@@ -8451,94 +8449,94 @@
         <v>29</v>
       </c>
       <c r="AF40" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG40" s="43">
+        <v>195</v>
+      </c>
+      <c r="AG40" s="32">
         <f t="shared" si="5"/>
         <v>84</v>
       </c>
-      <c r="AH40" s="43">
+      <c r="AH40" s="32">
         <f t="shared" si="6"/>
         <v>89</v>
       </c>
-      <c r="AI40" s="43">
+      <c r="AI40" s="32">
         <f t="shared" si="7"/>
         <v>92</v>
       </c>
-      <c r="AJ40" s="43">
+      <c r="AJ40" s="32">
         <f t="shared" si="8"/>
         <v>82</v>
       </c>
-      <c r="AK40" s="43">
+      <c r="AK40" s="32">
         <f t="shared" si="9"/>
         <v>91</v>
       </c>
-      <c r="AL40" s="43"/>
-      <c r="AM40" s="44">
+      <c r="AL40" s="32"/>
+      <c r="AM40" s="33">
+        <f t="shared" si="40"/>
+        <v>84</v>
+      </c>
+      <c r="AN40" s="33">
+        <f t="shared" si="41"/>
+        <v>89</v>
+      </c>
+      <c r="AO40" s="33">
+        <f t="shared" si="42"/>
+        <v>92</v>
+      </c>
+      <c r="AP40" s="33">
+        <f t="shared" si="43"/>
+        <v>82</v>
+      </c>
+      <c r="AQ40" s="33">
+        <f t="shared" si="44"/>
+        <v>91</v>
+      </c>
+      <c r="AR40" s="33"/>
+      <c r="AS40" s="33" t="str">
         <f t="shared" si="10"/>
-        <v>105</v>
-      </c>
-      <c r="AN40" s="44">
+        <v>A2</v>
+      </c>
+      <c r="AT40" s="33" t="str">
         <f t="shared" si="11"/>
-        <v>111</v>
-      </c>
-      <c r="AO40" s="44">
+        <v>A2</v>
+      </c>
+      <c r="AU40" s="33" t="str">
         <f t="shared" si="12"/>
-        <v>115</v>
-      </c>
-      <c r="AP40" s="44">
+        <v>A1</v>
+      </c>
+      <c r="AV40" s="33" t="str">
         <f t="shared" si="13"/>
-        <v>103</v>
-      </c>
-      <c r="AQ40" s="44">
+        <v>A2</v>
+      </c>
+      <c r="AW40" s="33" t="str">
         <f t="shared" si="14"/>
-        <v>114</v>
-      </c>
-      <c r="AR40" s="44"/>
-      <c r="AS40" s="44" t="str">
-        <f t="shared" si="15"/>
         <v>A1</v>
       </c>
-      <c r="AT40" s="44" t="str">
-        <f t="shared" si="16"/>
-        <v>A1</v>
-      </c>
-      <c r="AU40" s="44" t="str">
-        <f t="shared" si="17"/>
-        <v>A1</v>
-      </c>
-      <c r="AV40" s="44" t="str">
-        <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
-      <c r="AW40" s="44" t="str">
-        <f t="shared" si="19"/>
-        <v>A1</v>
-      </c>
-      <c r="AX40" s="44"/>
-      <c r="AY40" s="17">
+      <c r="AX40" s="33"/>
+      <c r="AY40" s="4">
         <v>500</v>
       </c>
-      <c r="AZ40" s="45">
+      <c r="AZ40" s="34">
         <f t="shared" si="3"/>
         <v>438</v>
       </c>
-      <c r="BA40" s="18">
+      <c r="BA40" s="17">
         <f t="shared" si="4"/>
         <v>88</v>
       </c>
-      <c r="BB40" s="17">
+      <c r="BB40" s="4">
         <v>115</v>
       </c>
-      <c r="BC40" s="17">
+      <c r="BC40" s="4">
         <v>170</v>
       </c>
-      <c r="BD40" s="46">
+      <c r="BD40" s="35">
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A41" s="42">
+    <row r="41" spans="1:56">
+      <c r="A41" s="31">
         <v>39</v>
       </c>
       <c r="B41" s="3">
@@ -8554,7 +8552,7 @@
         <v>82</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>35</v>
@@ -8578,7 +8576,7 @@
         <v>15</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O41" s="6">
         <v>29</v>
@@ -8596,7 +8594,7 @@
         <v>29</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U41" s="4">
         <v>20</v>
@@ -8614,7 +8612,7 @@
         <v>20</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA41" s="4">
         <v>30</v>
@@ -8632,94 +8630,94 @@
         <v>30</v>
       </c>
       <c r="AF41" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG41" s="43">
+        <v>195</v>
+      </c>
+      <c r="AG41" s="32">
         <f t="shared" si="5"/>
         <v>97</v>
       </c>
-      <c r="AH41" s="43">
+      <c r="AH41" s="32">
         <f t="shared" si="6"/>
         <v>96</v>
       </c>
-      <c r="AI41" s="43">
+      <c r="AI41" s="32">
         <f t="shared" si="7"/>
         <v>95</v>
       </c>
-      <c r="AJ41" s="43">
+      <c r="AJ41" s="32">
         <f t="shared" si="8"/>
         <v>99</v>
       </c>
-      <c r="AK41" s="43">
+      <c r="AK41" s="32">
         <f t="shared" si="9"/>
         <v>94</v>
       </c>
-      <c r="AL41" s="43"/>
-      <c r="AM41" s="44">
+      <c r="AL41" s="32"/>
+      <c r="AM41" s="33">
+        <f t="shared" si="40"/>
+        <v>97</v>
+      </c>
+      <c r="AN41" s="33">
+        <f t="shared" si="41"/>
+        <v>96</v>
+      </c>
+      <c r="AO41" s="33">
+        <f t="shared" si="42"/>
+        <v>95</v>
+      </c>
+      <c r="AP41" s="33">
+        <f t="shared" si="43"/>
+        <v>99</v>
+      </c>
+      <c r="AQ41" s="33">
+        <f t="shared" si="44"/>
+        <v>94</v>
+      </c>
+      <c r="AR41" s="33"/>
+      <c r="AS41" s="33" t="str">
         <f t="shared" si="10"/>
-        <v>121</v>
-      </c>
-      <c r="AN41" s="44">
+        <v>A1</v>
+      </c>
+      <c r="AT41" s="33" t="str">
         <f t="shared" si="11"/>
-        <v>120</v>
-      </c>
-      <c r="AO41" s="44">
+        <v>A1</v>
+      </c>
+      <c r="AU41" s="33" t="str">
         <f t="shared" si="12"/>
-        <v>119</v>
-      </c>
-      <c r="AP41" s="44">
+        <v>A1</v>
+      </c>
+      <c r="AV41" s="33" t="str">
         <f t="shared" si="13"/>
-        <v>124</v>
-      </c>
-      <c r="AQ41" s="44">
+        <v>A1</v>
+      </c>
+      <c r="AW41" s="33" t="str">
         <f t="shared" si="14"/>
-        <v>118</v>
-      </c>
-      <c r="AR41" s="44"/>
-      <c r="AS41" s="44" t="str">
-        <f t="shared" si="15"/>
         <v>A1</v>
       </c>
-      <c r="AT41" s="44" t="str">
-        <f t="shared" si="16"/>
-        <v>A1</v>
-      </c>
-      <c r="AU41" s="44" t="str">
-        <f t="shared" si="17"/>
-        <v>A1</v>
-      </c>
-      <c r="AV41" s="44" t="str">
-        <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
-      <c r="AW41" s="44" t="str">
-        <f t="shared" si="19"/>
-        <v>A1</v>
-      </c>
-      <c r="AX41" s="44"/>
-      <c r="AY41" s="17">
+      <c r="AX41" s="33"/>
+      <c r="AY41" s="4">
         <v>500</v>
       </c>
-      <c r="AZ41" s="45">
+      <c r="AZ41" s="34">
         <f t="shared" si="3"/>
         <v>481</v>
       </c>
-      <c r="BA41" s="18">
+      <c r="BA41" s="17">
         <f t="shared" si="4"/>
         <v>96</v>
       </c>
-      <c r="BB41" s="17">
+      <c r="BB41" s="4">
         <v>138</v>
       </c>
-      <c r="BC41" s="17">
+      <c r="BC41" s="4">
         <v>170</v>
       </c>
-      <c r="BD41" s="46">
+      <c r="BD41" s="35">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A42" s="42">
+    <row r="42" spans="1:56">
+      <c r="A42" s="31">
         <v>40</v>
       </c>
       <c r="B42" s="3">
@@ -8735,13 +8733,13 @@
         <v>82</v>
       </c>
       <c r="F42" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="I42" s="4">
         <v>15</v>
@@ -8759,7 +8757,7 @@
         <v>12</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O42" s="6">
         <v>26</v>
@@ -8777,7 +8775,7 @@
         <v>26</v>
       </c>
       <c r="T42" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U42" s="4">
         <v>18</v>
@@ -8795,7 +8793,7 @@
         <v>20</v>
       </c>
       <c r="Z42" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA42" s="4">
         <v>21</v>
@@ -8813,274 +8811,274 @@
         <v>27</v>
       </c>
       <c r="AF42" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG42" s="43">
+        <v>195</v>
+      </c>
+      <c r="AG42" s="32">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="AH42" s="43">
+      <c r="AH42" s="32">
         <f t="shared" si="6"/>
         <v>82</v>
       </c>
-      <c r="AI42" s="43">
+      <c r="AI42" s="32">
         <f t="shared" si="7"/>
         <v>90</v>
       </c>
-      <c r="AJ42" s="43">
+      <c r="AJ42" s="32">
         <f t="shared" si="8"/>
         <v>75</v>
       </c>
-      <c r="AK42" s="43">
+      <c r="AK42" s="32">
         <f t="shared" si="9"/>
         <v>85</v>
       </c>
-      <c r="AL42" s="43"/>
-      <c r="AM42" s="44">
+      <c r="AL42" s="32"/>
+      <c r="AM42" s="33">
+        <f t="shared" si="40"/>
+        <v>80</v>
+      </c>
+      <c r="AN42" s="33">
+        <f t="shared" si="41"/>
+        <v>82</v>
+      </c>
+      <c r="AO42" s="33">
+        <f t="shared" si="17"/>
+        <v>113</v>
+      </c>
+      <c r="AP42" s="33">
+        <f t="shared" si="43"/>
+        <v>75</v>
+      </c>
+      <c r="AQ42" s="33">
+        <f t="shared" si="44"/>
+        <v>85</v>
+      </c>
+      <c r="AR42" s="33"/>
+      <c r="AS42" s="33" t="str">
         <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
-      <c r="AN42" s="44">
+        <v>B1</v>
+      </c>
+      <c r="AT42" s="33" t="str">
         <f t="shared" si="11"/>
-        <v>103</v>
-      </c>
-      <c r="AO42" s="44">
+        <v>A2</v>
+      </c>
+      <c r="AU42" s="33" t="str">
         <f t="shared" si="12"/>
-        <v>113</v>
-      </c>
-      <c r="AP42" s="44">
+        <v>A1</v>
+      </c>
+      <c r="AV42" s="33" t="str">
         <f t="shared" si="13"/>
-        <v>94</v>
-      </c>
-      <c r="AQ42" s="44">
+        <v>B1</v>
+      </c>
+      <c r="AW42" s="33" t="str">
         <f t="shared" si="14"/>
-        <v>106</v>
-      </c>
-      <c r="AR42" s="44"/>
-      <c r="AS42" s="44" t="str">
-        <f t="shared" si="15"/>
-        <v>A1</v>
-      </c>
-      <c r="AT42" s="44" t="str">
-        <f t="shared" si="16"/>
-        <v>A1</v>
-      </c>
-      <c r="AU42" s="44" t="str">
-        <f t="shared" si="17"/>
-        <v>A1</v>
-      </c>
-      <c r="AV42" s="44" t="str">
-        <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
-      <c r="AW42" s="44" t="str">
-        <f t="shared" si="19"/>
-        <v>A1</v>
-      </c>
-      <c r="AX42" s="44"/>
-      <c r="AY42" s="17">
+        <v>A2</v>
+      </c>
+      <c r="AX42" s="33"/>
+      <c r="AY42" s="4">
         <v>500</v>
       </c>
-      <c r="AZ42" s="45">
+      <c r="AZ42" s="34">
         <f t="shared" si="3"/>
         <v>412</v>
       </c>
-      <c r="BA42" s="18">
+      <c r="BA42" s="17">
         <f t="shared" si="4"/>
         <v>82</v>
       </c>
-      <c r="BB42" s="17">
+      <c r="BB42" s="4">
         <v>116</v>
       </c>
-      <c r="BC42" s="17">
+      <c r="BC42" s="4">
         <v>170</v>
       </c>
-      <c r="BD42" s="46">
+      <c r="BD42" s="35">
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A43" s="52">
+    <row r="43" spans="1:56">
+      <c r="A43" s="41">
         <v>41</v>
       </c>
-      <c r="B43" s="53">
+      <c r="B43" s="42">
         <v>3095</v>
       </c>
-      <c r="C43" s="54" t="s">
+      <c r="C43" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="D43" s="55">
+      <c r="D43" s="44">
         <v>9634957282</v>
       </c>
-      <c r="E43" s="56" t="s">
+      <c r="E43" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="F43" s="54" t="s">
+      <c r="F43" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="G43" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="G43" s="54" t="s">
+      <c r="H43" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="H43" s="54" t="s">
-        <v>193</v>
-      </c>
-      <c r="I43" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="J43" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="K43" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="L43" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="M43" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="N43" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="O43" s="58">
+      <c r="I43" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="J43" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="K43" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="L43" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="M43" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="N43" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="O43" s="47">
         <v>23</v>
       </c>
-      <c r="P43" s="58">
+      <c r="P43" s="47">
         <v>21</v>
       </c>
-      <c r="Q43" s="58">
+      <c r="Q43" s="47">
         <v>21</v>
       </c>
-      <c r="R43" s="58">
+      <c r="R43" s="47">
         <v>20</v>
       </c>
-      <c r="S43" s="58">
+      <c r="S43" s="47">
         <v>19</v>
       </c>
-      <c r="T43" s="55" t="s">
-        <v>196</v>
-      </c>
-      <c r="U43" s="55">
+      <c r="T43" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="U43" s="44">
         <v>14</v>
       </c>
-      <c r="V43" s="55">
+      <c r="V43" s="44">
         <v>9</v>
       </c>
-      <c r="W43" s="55">
+      <c r="W43" s="44">
         <v>18</v>
       </c>
-      <c r="X43" s="55">
+      <c r="X43" s="44">
         <v>14</v>
       </c>
-      <c r="Y43" s="55">
+      <c r="Y43" s="44">
         <v>19</v>
       </c>
-      <c r="Z43" s="55" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA43" s="55">
+      <c r="Z43" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA43" s="44">
         <v>28</v>
       </c>
-      <c r="AB43" s="55">
+      <c r="AB43" s="44">
         <v>26</v>
       </c>
-      <c r="AC43" s="55">
+      <c r="AC43" s="44">
         <v>20</v>
       </c>
-      <c r="AD43" s="55">
+      <c r="AD43" s="44">
         <v>17</v>
       </c>
-      <c r="AE43" s="55">
+      <c r="AE43" s="44">
         <v>27</v>
       </c>
-      <c r="AF43" s="55" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG43" s="59">
+      <c r="AF43" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG43" s="48">
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="AH43" s="59">
+      <c r="AH43" s="48">
         <f t="shared" si="6"/>
         <v>56</v>
       </c>
-      <c r="AI43" s="59">
+      <c r="AI43" s="48">
         <f t="shared" si="7"/>
         <v>59</v>
       </c>
-      <c r="AJ43" s="59">
+      <c r="AJ43" s="48">
         <f t="shared" si="8"/>
         <v>51</v>
       </c>
-      <c r="AK43" s="59">
+      <c r="AK43" s="48">
         <f t="shared" si="9"/>
         <v>65</v>
       </c>
-      <c r="AL43" s="59"/>
-      <c r="AM43" s="60">
+      <c r="AL43" s="48"/>
+      <c r="AM43" s="49">
+        <f t="shared" si="15"/>
+        <v>81</v>
+      </c>
+      <c r="AN43" s="49">
+        <f t="shared" si="16"/>
+        <v>70</v>
+      </c>
+      <c r="AO43" s="49">
+        <f t="shared" si="17"/>
+        <v>74</v>
+      </c>
+      <c r="AP43" s="49">
+        <f t="shared" si="18"/>
+        <v>64</v>
+      </c>
+      <c r="AQ43" s="49">
+        <f t="shared" si="19"/>
+        <v>81</v>
+      </c>
+      <c r="AR43" s="49"/>
+      <c r="AS43" s="49" t="str">
         <f t="shared" si="10"/>
-        <v>81</v>
-      </c>
-      <c r="AN43" s="60">
+        <v>A2</v>
+      </c>
+      <c r="AT43" s="49" t="str">
         <f t="shared" si="11"/>
-        <v>70</v>
-      </c>
-      <c r="AO43" s="60">
+        <v>B2</v>
+      </c>
+      <c r="AU43" s="49" t="str">
         <f t="shared" si="12"/>
-        <v>74</v>
-      </c>
-      <c r="AP43" s="60">
+        <v>B1</v>
+      </c>
+      <c r="AV43" s="49" t="str">
         <f t="shared" si="13"/>
-        <v>64</v>
-      </c>
-      <c r="AQ43" s="60">
+        <v>B2</v>
+      </c>
+      <c r="AW43" s="49" t="str">
         <f t="shared" si="14"/>
-        <v>81</v>
-      </c>
-      <c r="AR43" s="60"/>
-      <c r="AS43" s="60" t="str">
-        <f t="shared" si="15"/>
         <v>A2</v>
       </c>
-      <c r="AT43" s="60" t="str">
-        <f t="shared" si="16"/>
-        <v>B2</v>
-      </c>
-      <c r="AU43" s="60" t="str">
-        <f t="shared" si="17"/>
-        <v>B1</v>
-      </c>
-      <c r="AV43" s="60" t="str">
-        <f t="shared" si="18"/>
-        <v>B2</v>
-      </c>
-      <c r="AW43" s="60" t="str">
-        <f t="shared" si="19"/>
-        <v>A2</v>
-      </c>
-      <c r="AX43" s="60"/>
-      <c r="AY43" s="61">
+      <c r="AX43" s="49"/>
+      <c r="AY43" s="50">
         <v>400</v>
       </c>
-      <c r="AZ43" s="62">
+      <c r="AZ43" s="51">
         <f t="shared" si="3"/>
         <v>296</v>
       </c>
-      <c r="BA43" s="63">
+      <c r="BA43" s="52">
         <f t="shared" si="4"/>
         <v>74</v>
       </c>
-      <c r="BB43" s="61">
+      <c r="BB43" s="50">
         <v>93</v>
       </c>
-      <c r="BC43" s="61">
+      <c r="BC43" s="50">
         <v>170</v>
       </c>
-      <c r="BD43" s="64">
+      <c r="BD43" s="53">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:56" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:56">
       <c r="F44" s="14"/>
       <c r="H44" s="14"/>
       <c r="I44" s="15"/>
@@ -9129,7 +9127,7 @@
       <c r="AZ44" s="15"/>
       <c r="BA44" s="15"/>
     </row>
-    <row r="45" spans="1:56" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:56">
       <c r="F45" s="14"/>
       <c r="H45" s="14"/>
       <c r="I45" s="15"/>
@@ -9178,7 +9176,7 @@
       <c r="AZ45" s="15"/>
       <c r="BA45" s="15"/>
     </row>
-    <row r="46" spans="1:56" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:56">
       <c r="F46" s="14"/>
       <c r="H46" s="14"/>
       <c r="I46" s="15"/>
@@ -9227,7 +9225,7 @@
       <c r="AZ46" s="15"/>
       <c r="BA46" s="15"/>
     </row>
-    <row r="47" spans="1:56" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:56">
       <c r="F47" s="14"/>
       <c r="H47" s="14"/>
       <c r="I47" s="15"/>
@@ -9276,7 +9274,7 @@
       <c r="AZ47" s="15"/>
       <c r="BA47" s="15"/>
     </row>
-    <row r="48" spans="1:56" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:56">
       <c r="F48" s="14"/>
       <c r="H48" s="14"/>
       <c r="I48" s="15"/>
@@ -9325,7 +9323,7 @@
       <c r="AZ48" s="15"/>
       <c r="BA48" s="15"/>
     </row>
-    <row r="49" spans="6:53" x14ac:dyDescent="0.4">
+    <row r="49" spans="6:53">
       <c r="F49" s="14"/>
       <c r="H49" s="14"/>
       <c r="I49" s="15"/>
@@ -9374,7 +9372,7 @@
       <c r="AZ49" s="15"/>
       <c r="BA49" s="15"/>
     </row>
-    <row r="50" spans="6:53" x14ac:dyDescent="0.4">
+    <row r="50" spans="6:53">
       <c r="F50" s="14"/>
       <c r="H50" s="14"/>
       <c r="I50" s="15"/>
@@ -9423,7 +9421,7 @@
       <c r="AZ50" s="15"/>
       <c r="BA50" s="15"/>
     </row>
-    <row r="51" spans="6:53" x14ac:dyDescent="0.4">
+    <row r="51" spans="6:53">
       <c r="F51" s="14"/>
       <c r="H51" s="14"/>
       <c r="I51" s="15"/>
@@ -9472,7 +9470,7 @@
       <c r="AZ51" s="15"/>
       <c r="BA51" s="15"/>
     </row>
-    <row r="52" spans="6:53" x14ac:dyDescent="0.4">
+    <row r="52" spans="6:53">
       <c r="F52" s="14"/>
       <c r="H52" s="14"/>
       <c r="I52" s="15"/>
@@ -9521,7 +9519,7 @@
       <c r="AZ52" s="15"/>
       <c r="BA52" s="15"/>
     </row>
-    <row r="53" spans="6:53" x14ac:dyDescent="0.4">
+    <row r="53" spans="6:53">
       <c r="F53" s="14"/>
       <c r="H53" s="14"/>
       <c r="I53" s="15"/>
@@ -9570,7 +9568,7 @@
       <c r="AZ53" s="15"/>
       <c r="BA53" s="15"/>
     </row>
-    <row r="54" spans="6:53" x14ac:dyDescent="0.4">
+    <row r="54" spans="6:53">
       <c r="F54" s="14"/>
       <c r="H54" s="14"/>
       <c r="I54" s="15"/>
@@ -9619,7 +9617,7 @@
       <c r="AZ54" s="15"/>
       <c r="BA54" s="15"/>
     </row>
-    <row r="55" spans="6:53" x14ac:dyDescent="0.4">
+    <row r="55" spans="6:53">
       <c r="F55" s="14"/>
       <c r="H55" s="14"/>
       <c r="I55" s="15"/>
@@ -9668,7 +9666,7 @@
       <c r="AZ55" s="15"/>
       <c r="BA55" s="15"/>
     </row>
-    <row r="56" spans="6:53" x14ac:dyDescent="0.4">
+    <row r="56" spans="6:53">
       <c r="F56" s="14"/>
       <c r="H56" s="14"/>
       <c r="I56" s="15"/>
@@ -9717,7 +9715,7 @@
       <c r="AZ56" s="15"/>
       <c r="BA56" s="15"/>
     </row>
-    <row r="57" spans="6:53" x14ac:dyDescent="0.4">
+    <row r="57" spans="6:53">
       <c r="F57" s="14"/>
       <c r="H57" s="14"/>
       <c r="I57" s="15"/>
@@ -9766,7 +9764,7 @@
       <c r="AZ57" s="15"/>
       <c r="BA57" s="15"/>
     </row>
-    <row r="58" spans="6:53" x14ac:dyDescent="0.4">
+    <row r="58" spans="6:53">
       <c r="F58" s="14"/>
       <c r="H58" s="14"/>
       <c r="I58" s="15"/>
@@ -9815,7 +9813,7 @@
       <c r="AZ58" s="15"/>
       <c r="BA58" s="15"/>
     </row>
-    <row r="59" spans="6:53" x14ac:dyDescent="0.4">
+    <row r="59" spans="6:53">
       <c r="F59" s="14"/>
       <c r="H59" s="14"/>
       <c r="I59" s="15"/>
@@ -9864,7 +9862,7 @@
       <c r="AZ59" s="15"/>
       <c r="BA59" s="15"/>
     </row>
-    <row r="60" spans="6:53" x14ac:dyDescent="0.4">
+    <row r="60" spans="6:53">
       <c r="F60" s="14"/>
       <c r="H60" s="14"/>
       <c r="I60" s="15"/>
@@ -9913,7 +9911,7 @@
       <c r="AZ60" s="15"/>
       <c r="BA60" s="15"/>
     </row>
-    <row r="61" spans="6:53" x14ac:dyDescent="0.4">
+    <row r="61" spans="6:53">
       <c r="F61" s="14"/>
       <c r="H61" s="14"/>
       <c r="I61" s="15"/>
@@ -9962,7 +9960,7 @@
       <c r="AZ61" s="15"/>
       <c r="BA61" s="15"/>
     </row>
-    <row r="62" spans="6:53" x14ac:dyDescent="0.4">
+    <row r="62" spans="6:53">
       <c r="F62" s="14"/>
       <c r="H62" s="14"/>
       <c r="I62" s="15"/>
@@ -10011,7 +10009,7 @@
       <c r="AZ62" s="15"/>
       <c r="BA62" s="15"/>
     </row>
-    <row r="63" spans="6:53" x14ac:dyDescent="0.4">
+    <row r="63" spans="6:53">
       <c r="F63" s="14"/>
       <c r="H63" s="14"/>
       <c r="I63" s="15"/>
@@ -10061,6 +10059,7 @@
       <c r="BA63" s="15"/>
     </row>
   </sheetData>
+  <autoFilter ref="D1:D63" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="9">
     <mergeCell ref="U1:Z1"/>
     <mergeCell ref="AA1:AF1"/>
